--- a/data/Triangular_Arbitrage_Binance.xlsx
+++ b/data/Triangular_Arbitrage_Binance.xlsx
@@ -1,44 +1,36 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="25128"/>
-  <workbookPr defaultThemeVersion="166925"/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://imperiallondon-my.sharepoint.com/personal/eh1618_ic_ac_uk/Documents/Work/Fourth Year/Project/Research/crypto_arbitrage_bot/data/"/>
-    </mc:Choice>
-  </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="3" documentId="11_66952B40BEDF8CD8BB7ED9BC674CC5D2E767827F" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{7FF272A9-53EE-4173-A61A-E466D81BDC2E}"/>
+<workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <workbookPr/>
   <bookViews>
-    <workbookView xWindow="-110" yWindow="-110" windowWidth="38620" windowHeight="21220" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" xWindow="-110" yWindow="-110" windowWidth="38620" windowHeight="21220" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet name="Binance" sheetId="1" r:id="rId1"/>
-    <sheet name="Binance Timing" sheetId="2" r:id="rId2"/>
-    <sheet name="Binance Occ." sheetId="3" r:id="rId3"/>
+    <sheet name="Binance Timing" sheetId="1" state="visible" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="0"/>
+  <definedNames/>
+  <calcPr calcId="191029" fullCalcOnLoad="1"/>
 </workbook>
 </file>
 
-<file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main"/>
-</file>
-
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="1" x14ac:knownFonts="1">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <numFmts count="2">
+    <numFmt numFmtId="164" formatCode="yyyy-mm-dd h:mm:ss"/>
+    <numFmt numFmtId="165" formatCode="[hh]:mm:ss"/>
+  </numFmts>
+  <fonts count="1">
     <font>
-      <sz val="11"/>
-      <color theme="1"/>
       <name val="Calibri"/>
       <family val="2"/>
+      <color theme="1"/>
+      <sz val="11"/>
       <scheme val="minor"/>
     </font>
   </fonts>
   <fills count="2">
     <fill>
-      <patternFill patternType="none"/>
+      <patternFill/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
@@ -56,22 +48,84 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="1">
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+  <cellXfs count="4">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="165" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
-  <extLst>
-    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
-      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
-    </ext>
-    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
-      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
-    </ext>
-  </extLst>
+  <colors>
+    <indexedColors>
+      <rgbColor rgb="00000000"/>
+      <rgbColor rgb="00FFFFFF"/>
+      <rgbColor rgb="00FF0000"/>
+      <rgbColor rgb="0000FF00"/>
+      <rgbColor rgb="000000FF"/>
+      <rgbColor rgb="00FFFF00"/>
+      <rgbColor rgb="00FF00FF"/>
+      <rgbColor rgb="0000FFFF"/>
+      <rgbColor rgb="00000000"/>
+      <rgbColor rgb="00FFFFFF"/>
+      <rgbColor rgb="00FF0000"/>
+      <rgbColor rgb="0000FF00"/>
+      <rgbColor rgb="000000FF"/>
+      <rgbColor rgb="00FFFF00"/>
+      <rgbColor rgb="00FF00FF"/>
+      <rgbColor rgb="0000FFFF"/>
+      <rgbColor rgb="00800000"/>
+      <rgbColor rgb="00008000"/>
+      <rgbColor rgb="00000080"/>
+      <rgbColor rgb="00808000"/>
+      <rgbColor rgb="00800080"/>
+      <rgbColor rgb="00008080"/>
+      <rgbColor rgb="00C0C0C0"/>
+      <rgbColor rgb="00808080"/>
+      <rgbColor rgb="009999FF"/>
+      <rgbColor rgb="00993366"/>
+      <rgbColor rgb="00FFFFCC"/>
+      <rgbColor rgb="00CCFFFF"/>
+      <rgbColor rgb="00660066"/>
+      <rgbColor rgb="00FF8080"/>
+      <rgbColor rgb="000066CC"/>
+      <rgbColor rgb="00CCCCFF"/>
+      <rgbColor rgb="00000080"/>
+      <rgbColor rgb="00FF00FF"/>
+      <rgbColor rgb="00FFFF00"/>
+      <rgbColor rgb="0000FFFF"/>
+      <rgbColor rgb="00800080"/>
+      <rgbColor rgb="00800000"/>
+      <rgbColor rgb="00008080"/>
+      <rgbColor rgb="000000FF"/>
+      <rgbColor rgb="0000CCFF"/>
+      <rgbColor rgb="00CCFFFF"/>
+      <rgbColor rgb="00CCFFCC"/>
+      <rgbColor rgb="00FFFF99"/>
+      <rgbColor rgb="0099CCFF"/>
+      <rgbColor rgb="00FF99CC"/>
+      <rgbColor rgb="00CC99FF"/>
+      <rgbColor rgb="00FFCC99"/>
+      <rgbColor rgb="003366FF"/>
+      <rgbColor rgb="0033CCCC"/>
+      <rgbColor rgb="0099CC00"/>
+      <rgbColor rgb="00FFCC00"/>
+      <rgbColor rgb="00FF9900"/>
+      <rgbColor rgb="00FF6600"/>
+      <rgbColor rgb="00666699"/>
+      <rgbColor rgb="00969696"/>
+      <rgbColor rgb="00003366"/>
+      <rgbColor rgb="00339966"/>
+      <rgbColor rgb="00003300"/>
+      <rgbColor rgb="00333300"/>
+      <rgbColor rgb="00993300"/>
+      <rgbColor rgb="00993366"/>
+      <rgbColor rgb="00333399"/>
+      <rgbColor rgb="00333333"/>
+    </indexedColors>
+  </colors>
 </styleSheet>
 </file>
 
@@ -371,54 +425,80 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:D8"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="D19" sqref="A1:E23"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="C36" sqref="C36"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="14.5"/>
   <cols>
-    <col min="1" max="1" width="20.54296875" customWidth="1"/>
-    <col min="3" max="3" width="21.90625" customWidth="1"/>
-    <col min="4" max="4" width="42.90625" customWidth="1"/>
-    <col min="5" max="5" width="12.54296875" customWidth="1"/>
+    <col width="18.26953125" customWidth="1" style="1" min="1" max="1"/>
+    <col width="20.26953125" customWidth="1" style="1" min="2" max="2"/>
+    <col width="19" customWidth="1" style="1" min="3" max="3"/>
+    <col width="22.453125" customWidth="1" style="1" min="4" max="4"/>
   </cols>
-  <sheetData/>
+  <sheetData>
+    <row r="1"/>
+    <row r="2">
+      <c r="A2" t="inlineStr">
+        <is>
+          <t>buy</t>
+        </is>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>AUDUSDT</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>LUNAAUD</t>
+        </is>
+      </c>
+      <c r="D2" t="inlineStr">
+        <is>
+          <t>LUNAUSDT</t>
+        </is>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" t="n">
+        <v>1.91838985784365</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="2" t="n">
+        <v>44693.6622156713</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="2" t="n">
+        <v>44693.66239370311</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="3" t="n">
+        <v>0.0001780318171296296</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="2" t="n">
+        <v>44693.66239580378</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="3" t="n">
+        <v>2.100671296296296e-06</v>
+      </c>
+    </row>
+  </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
-  <dimension ref="A1"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="B20" sqref="A1:XFD1048576"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
-  <cols>
-    <col min="1" max="1" width="41.453125" customWidth="1"/>
-    <col min="2" max="2" width="28.453125" customWidth="1"/>
-    <col min="3" max="3" width="67.453125" customWidth="1"/>
-  </cols>
-  <sheetData/>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
-  <dimension ref="A1"/>
-  <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A16" workbookViewId="0">
-      <selection activeCell="B25" sqref="A1:XFD1048576"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
-  <sheetData/>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" paperSize="9" horizontalDpi="4294967293" verticalDpi="0"/>
 </worksheet>
 </file>
--- a/data/Triangular_Arbitrage_Binance.xlsx
+++ b/data/Triangular_Arbitrage_Binance.xlsx
@@ -1,36 +1,44 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <workbookPr/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="25128"/>
+  <workbookPr defaultThemeVersion="166925"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://imperiallondon-my.sharepoint.com/personal/eh1618_ic_ac_uk/Documents/Work/Fourth Year/Project/Research/crypto_arbitrage_bot/data/"/>
+    </mc:Choice>
+  </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="3" documentId="11_90F1685A710F0BAA5D7E528C73C0981495FC57C1" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{B4BF0D40-E3FA-46AA-8022-0DDFC0DE3DEB}"/>
   <bookViews>
-    <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" xWindow="-110" yWindow="-110" windowWidth="38620" windowHeight="21220" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
+    <workbookView xWindow="-28920" yWindow="8745" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
-    <sheet name="Binance Timing" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet name="Binance" sheetId="1" r:id="rId1"/>
+    <sheet name="Binance Occ." sheetId="2" r:id="rId2"/>
+    <sheet name="Binance Timing" sheetId="3" r:id="rId3"/>
   </sheets>
-  <definedNames/>
-  <calcPr calcId="191029" fullCalcOnLoad="1"/>
+  <calcPr calcId="0"/>
 </workbook>
 </file>
 
+<file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main"/>
+</file>
+
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <numFmts count="2">
-    <numFmt numFmtId="164" formatCode="yyyy-mm-dd h:mm:ss"/>
-    <numFmt numFmtId="165" formatCode="[hh]:mm:ss"/>
-  </numFmts>
-  <fonts count="1">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+  <fonts count="1" x14ac:knownFonts="1">
     <font>
+      <sz val="11"/>
+      <color theme="1"/>
       <name val="Calibri"/>
       <family val="2"/>
-      <color theme="1"/>
-      <sz val="11"/>
       <scheme val="minor"/>
     </font>
   </fonts>
   <fills count="2">
     <fill>
-      <patternFill/>
+      <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
@@ -48,84 +56,22 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="4">
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf numFmtId="165" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+  <cellXfs count="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
+  <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
-  <colors>
-    <indexedColors>
-      <rgbColor rgb="00000000"/>
-      <rgbColor rgb="00FFFFFF"/>
-      <rgbColor rgb="00FF0000"/>
-      <rgbColor rgb="0000FF00"/>
-      <rgbColor rgb="000000FF"/>
-      <rgbColor rgb="00FFFF00"/>
-      <rgbColor rgb="00FF00FF"/>
-      <rgbColor rgb="0000FFFF"/>
-      <rgbColor rgb="00000000"/>
-      <rgbColor rgb="00FFFFFF"/>
-      <rgbColor rgb="00FF0000"/>
-      <rgbColor rgb="0000FF00"/>
-      <rgbColor rgb="000000FF"/>
-      <rgbColor rgb="00FFFF00"/>
-      <rgbColor rgb="00FF00FF"/>
-      <rgbColor rgb="0000FFFF"/>
-      <rgbColor rgb="00800000"/>
-      <rgbColor rgb="00008000"/>
-      <rgbColor rgb="00000080"/>
-      <rgbColor rgb="00808000"/>
-      <rgbColor rgb="00800080"/>
-      <rgbColor rgb="00008080"/>
-      <rgbColor rgb="00C0C0C0"/>
-      <rgbColor rgb="00808080"/>
-      <rgbColor rgb="009999FF"/>
-      <rgbColor rgb="00993366"/>
-      <rgbColor rgb="00FFFFCC"/>
-      <rgbColor rgb="00CCFFFF"/>
-      <rgbColor rgb="00660066"/>
-      <rgbColor rgb="00FF8080"/>
-      <rgbColor rgb="000066CC"/>
-      <rgbColor rgb="00CCCCFF"/>
-      <rgbColor rgb="00000080"/>
-      <rgbColor rgb="00FF00FF"/>
-      <rgbColor rgb="00FFFF00"/>
-      <rgbColor rgb="0000FFFF"/>
-      <rgbColor rgb="00800080"/>
-      <rgbColor rgb="00800000"/>
-      <rgbColor rgb="00008080"/>
-      <rgbColor rgb="000000FF"/>
-      <rgbColor rgb="0000CCFF"/>
-      <rgbColor rgb="00CCFFFF"/>
-      <rgbColor rgb="00CCFFCC"/>
-      <rgbColor rgb="00FFFF99"/>
-      <rgbColor rgb="0099CCFF"/>
-      <rgbColor rgb="00FF99CC"/>
-      <rgbColor rgb="00CC99FF"/>
-      <rgbColor rgb="00FFCC99"/>
-      <rgbColor rgb="003366FF"/>
-      <rgbColor rgb="0033CCCC"/>
-      <rgbColor rgb="0099CC00"/>
-      <rgbColor rgb="00FFCC00"/>
-      <rgbColor rgb="00FF9900"/>
-      <rgbColor rgb="00FF6600"/>
-      <rgbColor rgb="00666699"/>
-      <rgbColor rgb="00969696"/>
-      <rgbColor rgb="00003366"/>
-      <rgbColor rgb="00339966"/>
-      <rgbColor rgb="00003300"/>
-      <rgbColor rgb="00333300"/>
-      <rgbColor rgb="00993300"/>
-      <rgbColor rgb="00993366"/>
-      <rgbColor rgb="00333399"/>
-      <rgbColor rgb="00333333"/>
-    </indexedColors>
-  </colors>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
+      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
+    </ext>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
+      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
+    </ext>
+  </extLst>
 </styleSheet>
 </file>
 
@@ -425,80 +371,40 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <sheetPr>
-    <outlinePr summaryBelow="1" summaryRight="1"/>
-    <pageSetUpPr/>
-  </sheetPr>
-  <dimension ref="A1:D8"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+  <dimension ref="A1"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C36" sqref="C36"/>
-    </sheetView>
+    <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr baseColWidth="8" defaultRowHeight="14.5"/>
+  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetData/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
+  <dimension ref="A1"/>
+  <sheetViews>
+    <sheetView workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetData/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
+  <dimension ref="A1"/>
+  <sheetViews>
+    <sheetView workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
-    <col width="18.26953125" customWidth="1" style="1" min="1" max="1"/>
-    <col width="20.26953125" customWidth="1" style="1" min="2" max="2"/>
-    <col width="19" customWidth="1" style="1" min="3" max="3"/>
-    <col width="22.453125" customWidth="1" style="1" min="4" max="4"/>
+    <col min="3" max="3" width="42.1796875" customWidth="1"/>
   </cols>
-  <sheetData>
-    <row r="1"/>
-    <row r="2">
-      <c r="A2" t="inlineStr">
-        <is>
-          <t>buy</t>
-        </is>
-      </c>
-      <c r="B2" t="inlineStr">
-        <is>
-          <t>AUDUSDT</t>
-        </is>
-      </c>
-      <c r="C2" t="inlineStr">
-        <is>
-          <t>LUNAAUD</t>
-        </is>
-      </c>
-      <c r="D2" t="inlineStr">
-        <is>
-          <t>LUNAUSDT</t>
-        </is>
-      </c>
-    </row>
-    <row r="3">
-      <c r="A3" t="n">
-        <v>1.91838985784365</v>
-      </c>
-    </row>
-    <row r="4">
-      <c r="A4" s="2" t="n">
-        <v>44693.6622156713</v>
-      </c>
-    </row>
-    <row r="5">
-      <c r="A5" s="2" t="n">
-        <v>44693.66239370311</v>
-      </c>
-    </row>
-    <row r="6">
-      <c r="A6" s="3" t="n">
-        <v>0.0001780318171296296</v>
-      </c>
-    </row>
-    <row r="7">
-      <c r="A7" s="2" t="n">
-        <v>44693.66239580378</v>
-      </c>
-    </row>
-    <row r="8">
-      <c r="A8" s="3" t="n">
-        <v>2.100671296296296e-06</v>
-      </c>
-    </row>
-  </sheetData>
+  <sheetData/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup orientation="portrait" paperSize="9" horizontalDpi="4294967293" verticalDpi="0"/>
 </worksheet>
 </file>
--- a/data/Triangular_Arbitrage_Binance.xlsx
+++ b/data/Triangular_Arbitrage_Binance.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://imperiallondon-my.sharepoint.com/personal/eh1618_ic_ac_uk/Documents/Work/Fourth Year/Project/Research/crypto_arbitrage_bot/data/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="3" documentId="11_90F1685A710F0BAA5D7E528C73C0981495FC57C1" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{B4BF0D40-E3FA-46AA-8022-0DDFC0DE3DEB}"/>
+  <xr:revisionPtr revIDLastSave="31" documentId="11_CD51894411278FAE2D5EC9F0F7ABACD59EFB9728" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{5949678B-ED0E-4F60-83A6-07F0CE662BCB}"/>
   <bookViews>
-    <workbookView xWindow="-28920" yWindow="8745" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-28920" yWindow="8745" windowWidth="29040" windowHeight="15840" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Binance" sheetId="1" r:id="rId1"/>
@@ -22,7 +22,176 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main"/>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="517" uniqueCount="56">
+  <si>
+    <t>2022-05-20 16:31:55</t>
+  </si>
+  <si>
+    <t>Binance</t>
+  </si>
+  <si>
+    <t>BUY -&gt; SELL -&gt; SELL</t>
+  </si>
+  <si>
+    <t>STPTUSDT -&gt; STPTBUSD -&gt; BUSDUSDT</t>
+  </si>
+  <si>
+    <t>BUY -&gt; BUY -&gt; SELL</t>
+  </si>
+  <si>
+    <t>BNBUSDT -&gt; CELRBNB -&gt; CELRUSDT</t>
+  </si>
+  <si>
+    <t>BNBUSDT -&gt; KP3RBNB -&gt; KP3RUSDT</t>
+  </si>
+  <si>
+    <t>BUSDUSDT -&gt; WINGBUSD -&gt; WINGUSDT</t>
+  </si>
+  <si>
+    <t>BUSDUSDT -&gt; DODOBUSD -&gt; DODOUSDT</t>
+  </si>
+  <si>
+    <t>BUSDUSDT -&gt; STMXBUSD -&gt; STMXUSDT</t>
+  </si>
+  <si>
+    <t>BUSDUSDT -&gt; DOCKBUSD -&gt; DOCKUSDT</t>
+  </si>
+  <si>
+    <t>EURUSDT -&gt; RUNEEUR -&gt; RUNEUSDT</t>
+  </si>
+  <si>
+    <t>2022-05-20 16:31:56</t>
+  </si>
+  <si>
+    <t>USDCUSDT -&gt; BTTCUSDC -&gt; BTTCUSDT</t>
+  </si>
+  <si>
+    <t>BUSDUSDT -&gt; BTTCBUSD -&gt; BTTCUSDT</t>
+  </si>
+  <si>
+    <t>EURUSDT -&gt; NEAREUR -&gt; NEARUSDT</t>
+  </si>
+  <si>
+    <t>2022-05-20 16:31:57</t>
+  </si>
+  <si>
+    <t>POWRUSDT -&gt; POWRBUSD -&gt; BUSDUSDT</t>
+  </si>
+  <si>
+    <t>EURUSDT -&gt; GALAEUR -&gt; GALAUSDT</t>
+  </si>
+  <si>
+    <t>2022-05-20 16:31:58</t>
+  </si>
+  <si>
+    <t>2022-05-20 16:31:59</t>
+  </si>
+  <si>
+    <t>2022-05-20 16:32:00</t>
+  </si>
+  <si>
+    <t>BNBUSDT -&gt; TROYBNB -&gt; TROYUSDT</t>
+  </si>
+  <si>
+    <t>2022-05-20 16:32:01</t>
+  </si>
+  <si>
+    <t>2022-05-20 16:32:02</t>
+  </si>
+  <si>
+    <t>2022-05-20 16:32:03</t>
+  </si>
+  <si>
+    <t>CITYUSDT -&gt; CITYBUSD -&gt; BUSDUSDT</t>
+  </si>
+  <si>
+    <t>2022-05-20 16:32:04</t>
+  </si>
+  <si>
+    <t>2022-05-20 16:32:05</t>
+  </si>
+  <si>
+    <t>2022-05-20 16:31:55, 2022-05-20 16:31:56, 2022-05-20 16:31:57, 2022-05-20 16:31:58, 2022-05-20 16:32:00, 2022-05-20 16:32:01, 2022-05-20 16:32:02, 2022-05-20 16:32:03, 2022-05-20 16:32:04, 2022-05-20 16:32:05</t>
+  </si>
+  <si>
+    <t>2022-05-20 16:31:55, 2022-05-20 16:31:56, 2022-05-20 16:31:57, 2022-05-20 16:31:58, 2022-05-20 16:32:03</t>
+  </si>
+  <si>
+    <t>2022-05-20 16:32:00, 2022-05-20 16:32:01</t>
+  </si>
+  <si>
+    <t>2022-05-20 16:31:56, 2022-05-20 16:31:57, 2022-05-20 16:31:58, 2022-05-20 16:31:59, 2022-05-20 16:32:01, 2022-05-20 16:32:03, 2022-05-20 16:32:04</t>
+  </si>
+  <si>
+    <t>2022-05-20 16:31:55, 2022-05-20 16:31:57, 2022-05-20 16:31:58, 2022-05-20 16:32:00, 2022-05-20 16:32:01, 2022-05-20 16:32:03, 2022-05-20 16:32:04, 2022-05-20 16:32:05</t>
+  </si>
+  <si>
+    <t>2022-05-20 16:31:55, 2022-05-20 16:31:56, 2022-05-20 16:31:58, 2022-05-20 16:31:59, 2022-05-20 16:32:01, 2022-05-20 16:32:03, 2022-05-20 16:32:04, 2022-05-20 16:32:05</t>
+  </si>
+  <si>
+    <t>2022-05-20 16:31:55, 2022-05-20 16:31:56, 2022-05-20 16:31:58, 2022-05-20 16:32:00, 2022-05-20 16:32:03, 2022-05-20 16:32:04, 2022-05-20 16:32:05</t>
+  </si>
+  <si>
+    <t>2022-05-20 16:31:55, 2022-05-20 16:31:56, 2022-05-20 16:31:57, 2022-05-20 16:32:03</t>
+  </si>
+  <si>
+    <t>2022-05-20 16:32:03, 2022-05-20 16:32:04, 2022-05-20 16:32:05</t>
+  </si>
+  <si>
+    <t>2022-05-20 16:31:57, 2022-05-20 16:31:58, 2022-05-20 16:32:00, 2022-05-20 16:32:05</t>
+  </si>
+  <si>
+    <t>2022-05-20 16:31:56, 2022-05-20 16:31:57, 2022-05-20 16:32:03</t>
+  </si>
+  <si>
+    <t>2022-05-20 16:31:55, 2022-05-20 16:31:57, 2022-05-20 16:31:58, 2022-05-20 16:31:59, 2022-05-20 16:32:00, 2022-05-20 16:32:03</t>
+  </si>
+  <si>
+    <t>2022-05-20 16:31:57, 2022-05-20 16:32:05</t>
+  </si>
+  <si>
+    <t>2022-05-20 16:31:56, 2022-05-20 16:31:57, 2022-05-20 16:31:59, 2022-05-20 16:32:00, 2022-05-20 16:32:01, 2022-05-20 16:32:03</t>
+  </si>
+  <si>
+    <t>Date</t>
+  </si>
+  <si>
+    <t>Exchange</t>
+  </si>
+  <si>
+    <t>Direction</t>
+  </si>
+  <si>
+    <t>Route</t>
+  </si>
+  <si>
+    <t>Gain</t>
+  </si>
+  <si>
+    <t>Volatility</t>
+  </si>
+  <si>
+    <t>Time</t>
+  </si>
+  <si>
+    <t>Occurances</t>
+  </si>
+  <si>
+    <t>BTC Volatility</t>
+  </si>
+  <si>
+    <t>Times</t>
+  </si>
+  <si>
+    <t>Occ</t>
+  </si>
+  <si>
+    <t>Max (s)</t>
+  </si>
+  <si>
+    <t>Ave (s)</t>
+  </si>
+</sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
@@ -372,39 +541,2998 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1"/>
+  <dimension ref="A1:F77"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="E1" sqref="E1"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
-  <sheetData/>
+  <cols>
+    <col min="2" max="2" width="13.54296875" customWidth="1"/>
+    <col min="3" max="3" width="16.453125" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="34.90625" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A1" t="s">
+        <v>43</v>
+      </c>
+      <c r="B1" t="s">
+        <v>44</v>
+      </c>
+      <c r="C1" t="s">
+        <v>45</v>
+      </c>
+      <c r="D1" t="s">
+        <v>46</v>
+      </c>
+      <c r="E1" t="s">
+        <v>47</v>
+      </c>
+      <c r="F1" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="2" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A2" t="s">
+        <v>0</v>
+      </c>
+      <c r="B2" t="s">
+        <v>1</v>
+      </c>
+      <c r="C2" t="s">
+        <v>2</v>
+      </c>
+      <c r="D2" t="s">
+        <v>3</v>
+      </c>
+      <c r="E2">
+        <v>0.32376372033037631</v>
+      </c>
+      <c r="F2">
+        <v>0.189</v>
+      </c>
+    </row>
+    <row r="3" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A3" t="s">
+        <v>0</v>
+      </c>
+      <c r="B3" t="s">
+        <v>1</v>
+      </c>
+      <c r="C3" t="s">
+        <v>4</v>
+      </c>
+      <c r="D3" t="s">
+        <v>5</v>
+      </c>
+      <c r="E3">
+        <v>0.62114698318414696</v>
+      </c>
+      <c r="F3">
+        <v>1.301666666666667</v>
+      </c>
+    </row>
+    <row r="4" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A4" t="s">
+        <v>0</v>
+      </c>
+      <c r="B4" t="s">
+        <v>1</v>
+      </c>
+      <c r="C4" t="s">
+        <v>4</v>
+      </c>
+      <c r="D4" t="s">
+        <v>6</v>
+      </c>
+      <c r="E4">
+        <v>0.32577924092268518</v>
+      </c>
+      <c r="F4">
+        <v>1.9730000000000001</v>
+      </c>
+    </row>
+    <row r="5" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A5" t="s">
+        <v>0</v>
+      </c>
+      <c r="B5" t="s">
+        <v>1</v>
+      </c>
+      <c r="C5" t="s">
+        <v>4</v>
+      </c>
+      <c r="D5" t="s">
+        <v>7</v>
+      </c>
+      <c r="E5">
+        <v>1.127644366197174</v>
+      </c>
+      <c r="F5">
+        <v>5.6139999999999999</v>
+      </c>
+    </row>
+    <row r="6" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A6" t="s">
+        <v>0</v>
+      </c>
+      <c r="B6" t="s">
+        <v>1</v>
+      </c>
+      <c r="C6" t="s">
+        <v>4</v>
+      </c>
+      <c r="D6" t="s">
+        <v>8</v>
+      </c>
+      <c r="E6">
+        <v>0.31242217690973462</v>
+      </c>
+      <c r="F6">
+        <v>5.924666666666667</v>
+      </c>
+    </row>
+    <row r="7" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A7" t="s">
+        <v>0</v>
+      </c>
+      <c r="B7" t="s">
+        <v>1</v>
+      </c>
+      <c r="C7" t="s">
+        <v>4</v>
+      </c>
+      <c r="D7" t="s">
+        <v>9</v>
+      </c>
+      <c r="E7">
+        <v>0.4730601531006613</v>
+      </c>
+      <c r="F7">
+        <v>2.7513333333333332</v>
+      </c>
+    </row>
+    <row r="8" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A8" t="s">
+        <v>0</v>
+      </c>
+      <c r="B8" t="s">
+        <v>1</v>
+      </c>
+      <c r="C8" t="s">
+        <v>4</v>
+      </c>
+      <c r="D8" t="s">
+        <v>10</v>
+      </c>
+      <c r="E8">
+        <v>0.27254494095612358</v>
+      </c>
+      <c r="F8">
+        <v>3.3660000000000001</v>
+      </c>
+    </row>
+    <row r="9" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A9" t="s">
+        <v>0</v>
+      </c>
+      <c r="B9" t="s">
+        <v>1</v>
+      </c>
+      <c r="C9" t="s">
+        <v>4</v>
+      </c>
+      <c r="D9" t="s">
+        <v>11</v>
+      </c>
+      <c r="E9">
+        <v>0.2489691545231949</v>
+      </c>
+      <c r="F9">
+        <v>5.7573333333333334</v>
+      </c>
+    </row>
+    <row r="10" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A10" t="s">
+        <v>12</v>
+      </c>
+      <c r="B10" t="s">
+        <v>1</v>
+      </c>
+      <c r="C10" t="s">
+        <v>4</v>
+      </c>
+      <c r="D10" t="s">
+        <v>5</v>
+      </c>
+      <c r="E10">
+        <v>0.58764010773188602</v>
+      </c>
+      <c r="F10">
+        <v>1.2906666666666671</v>
+      </c>
+    </row>
+    <row r="11" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A11" t="s">
+        <v>12</v>
+      </c>
+      <c r="B11" t="s">
+        <v>1</v>
+      </c>
+      <c r="C11" t="s">
+        <v>4</v>
+      </c>
+      <c r="D11" t="s">
+        <v>6</v>
+      </c>
+      <c r="E11">
+        <v>0.29237072302696282</v>
+      </c>
+      <c r="F11">
+        <v>1.948666666666667</v>
+      </c>
+    </row>
+    <row r="12" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A12" t="s">
+        <v>12</v>
+      </c>
+      <c r="B12" t="s">
+        <v>1</v>
+      </c>
+      <c r="C12" t="s">
+        <v>4</v>
+      </c>
+      <c r="D12" t="s">
+        <v>13</v>
+      </c>
+      <c r="E12">
+        <v>0.50616010262466204</v>
+      </c>
+      <c r="F12">
+        <v>0.30299999999999999</v>
+      </c>
+    </row>
+    <row r="13" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A13" t="s">
+        <v>12</v>
+      </c>
+      <c r="B13" t="s">
+        <v>1</v>
+      </c>
+      <c r="C13" t="s">
+        <v>4</v>
+      </c>
+      <c r="D13" t="s">
+        <v>7</v>
+      </c>
+      <c r="E13">
+        <v>1.127644366197174</v>
+      </c>
+      <c r="F13">
+        <v>5.6106666666666669</v>
+      </c>
+    </row>
+    <row r="14" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A14" t="s">
+        <v>12</v>
+      </c>
+      <c r="B14" t="s">
+        <v>1</v>
+      </c>
+      <c r="C14" t="s">
+        <v>4</v>
+      </c>
+      <c r="D14" t="s">
+        <v>8</v>
+      </c>
+      <c r="E14">
+        <v>0.31242217690973462</v>
+      </c>
+      <c r="F14">
+        <v>5.921333333333334</v>
+      </c>
+    </row>
+    <row r="15" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A15" t="s">
+        <v>12</v>
+      </c>
+      <c r="B15" t="s">
+        <v>1</v>
+      </c>
+      <c r="C15" t="s">
+        <v>4</v>
+      </c>
+      <c r="D15" t="s">
+        <v>9</v>
+      </c>
+      <c r="E15">
+        <v>0.4730601531006613</v>
+      </c>
+      <c r="F15">
+        <v>2.7480000000000002</v>
+      </c>
+    </row>
+    <row r="16" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A16" t="s">
+        <v>12</v>
+      </c>
+      <c r="B16" t="s">
+        <v>1</v>
+      </c>
+      <c r="C16" t="s">
+        <v>4</v>
+      </c>
+      <c r="D16" t="s">
+        <v>14</v>
+      </c>
+      <c r="E16">
+        <v>0.49612053014409702</v>
+      </c>
+      <c r="F16">
+        <v>0.60333333333333339</v>
+      </c>
+    </row>
+    <row r="17" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A17" t="s">
+        <v>12</v>
+      </c>
+      <c r="B17" t="s">
+        <v>1</v>
+      </c>
+      <c r="C17" t="s">
+        <v>4</v>
+      </c>
+      <c r="D17" t="s">
+        <v>15</v>
+      </c>
+      <c r="E17">
+        <v>0.2229367614366993</v>
+      </c>
+      <c r="F17">
+        <v>4.519333333333333</v>
+      </c>
+    </row>
+    <row r="18" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A18" t="s">
+        <v>16</v>
+      </c>
+      <c r="B18" t="s">
+        <v>1</v>
+      </c>
+      <c r="C18" t="s">
+        <v>2</v>
+      </c>
+      <c r="D18" t="s">
+        <v>17</v>
+      </c>
+      <c r="E18">
+        <v>0.24535517036606791</v>
+      </c>
+      <c r="F18">
+        <v>0.91833333333333333</v>
+      </c>
+    </row>
+    <row r="19" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A19" t="s">
+        <v>16</v>
+      </c>
+      <c r="B19" t="s">
+        <v>1</v>
+      </c>
+      <c r="C19" t="s">
+        <v>4</v>
+      </c>
+      <c r="D19" t="s">
+        <v>5</v>
+      </c>
+      <c r="E19">
+        <v>0.62114698318414696</v>
+      </c>
+      <c r="F19">
+        <v>1.272</v>
+      </c>
+    </row>
+    <row r="20" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A20" t="s">
+        <v>16</v>
+      </c>
+      <c r="B20" t="s">
+        <v>1</v>
+      </c>
+      <c r="C20" t="s">
+        <v>4</v>
+      </c>
+      <c r="D20" t="s">
+        <v>6</v>
+      </c>
+      <c r="E20">
+        <v>0.32577924092268518</v>
+      </c>
+      <c r="F20">
+        <v>1.9513333333333329</v>
+      </c>
+    </row>
+    <row r="21" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A21" t="s">
+        <v>16</v>
+      </c>
+      <c r="B21" t="s">
+        <v>1</v>
+      </c>
+      <c r="C21" t="s">
+        <v>4</v>
+      </c>
+      <c r="D21" t="s">
+        <v>13</v>
+      </c>
+      <c r="E21">
+        <v>0.50616010262466204</v>
+      </c>
+      <c r="F21">
+        <v>0.30633333333333329</v>
+      </c>
+    </row>
+    <row r="22" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A22" t="s">
+        <v>16</v>
+      </c>
+      <c r="B22" t="s">
+        <v>1</v>
+      </c>
+      <c r="C22" t="s">
+        <v>4</v>
+      </c>
+      <c r="D22" t="s">
+        <v>7</v>
+      </c>
+      <c r="E22">
+        <v>1.1377470279720401</v>
+      </c>
+      <c r="F22">
+        <v>5.6106666666666669</v>
+      </c>
+    </row>
+    <row r="23" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A23" t="s">
+        <v>16</v>
+      </c>
+      <c r="B23" t="s">
+        <v>1</v>
+      </c>
+      <c r="C23" t="s">
+        <v>4</v>
+      </c>
+      <c r="D23" t="s">
+        <v>10</v>
+      </c>
+      <c r="E23">
+        <v>0.57478916853320072</v>
+      </c>
+      <c r="F23">
+        <v>3.299666666666667</v>
+      </c>
+    </row>
+    <row r="24" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A24" t="s">
+        <v>16</v>
+      </c>
+      <c r="B24" t="s">
+        <v>1</v>
+      </c>
+      <c r="C24" t="s">
+        <v>4</v>
+      </c>
+      <c r="D24" t="s">
+        <v>14</v>
+      </c>
+      <c r="E24">
+        <v>0.50616010262466204</v>
+      </c>
+      <c r="F24">
+        <v>0.60333333333333339</v>
+      </c>
+    </row>
+    <row r="25" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A25" t="s">
+        <v>16</v>
+      </c>
+      <c r="B25" t="s">
+        <v>1</v>
+      </c>
+      <c r="C25" t="s">
+        <v>4</v>
+      </c>
+      <c r="D25" t="s">
+        <v>11</v>
+      </c>
+      <c r="E25">
+        <v>0.2489691545231949</v>
+      </c>
+      <c r="F25">
+        <v>5.7063333333333333</v>
+      </c>
+    </row>
+    <row r="26" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A26" t="s">
+        <v>16</v>
+      </c>
+      <c r="B26" t="s">
+        <v>1</v>
+      </c>
+      <c r="C26" t="s">
+        <v>4</v>
+      </c>
+      <c r="D26" t="s">
+        <v>18</v>
+      </c>
+      <c r="E26">
+        <v>0.3838287110371823</v>
+      </c>
+      <c r="F26">
+        <v>6.0826666666666673</v>
+      </c>
+    </row>
+    <row r="27" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A27" t="s">
+        <v>16</v>
+      </c>
+      <c r="B27" t="s">
+        <v>1</v>
+      </c>
+      <c r="C27" t="s">
+        <v>4</v>
+      </c>
+      <c r="D27" t="s">
+        <v>15</v>
+      </c>
+      <c r="E27">
+        <v>0.26585766362201468</v>
+      </c>
+      <c r="F27">
+        <v>4.5670000000000002</v>
+      </c>
+    </row>
+    <row r="28" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A28" t="s">
+        <v>19</v>
+      </c>
+      <c r="B28" t="s">
+        <v>1</v>
+      </c>
+      <c r="C28" t="s">
+        <v>4</v>
+      </c>
+      <c r="D28" t="s">
+        <v>5</v>
+      </c>
+      <c r="E28">
+        <v>0.65467618910990666</v>
+      </c>
+      <c r="F28">
+        <v>1.2829999999999999</v>
+      </c>
+    </row>
+    <row r="29" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A29" t="s">
+        <v>19</v>
+      </c>
+      <c r="B29" t="s">
+        <v>1</v>
+      </c>
+      <c r="C29" t="s">
+        <v>4</v>
+      </c>
+      <c r="D29" t="s">
+        <v>6</v>
+      </c>
+      <c r="E29">
+        <v>0.32656226511366532</v>
+      </c>
+      <c r="F29">
+        <v>1.9976666666666669</v>
+      </c>
+    </row>
+    <row r="30" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A30" t="s">
+        <v>19</v>
+      </c>
+      <c r="B30" t="s">
+        <v>1</v>
+      </c>
+      <c r="C30" t="s">
+        <v>4</v>
+      </c>
+      <c r="D30" t="s">
+        <v>8</v>
+      </c>
+      <c r="E30">
+        <v>0.31242217690973462</v>
+      </c>
+      <c r="F30">
+        <v>5.924666666666667</v>
+      </c>
+    </row>
+    <row r="31" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A31" t="s">
+        <v>19</v>
+      </c>
+      <c r="B31" t="s">
+        <v>1</v>
+      </c>
+      <c r="C31" t="s">
+        <v>4</v>
+      </c>
+      <c r="D31" t="s">
+        <v>9</v>
+      </c>
+      <c r="E31">
+        <v>0.4730601531006613</v>
+      </c>
+      <c r="F31">
+        <v>2.7513333333333332</v>
+      </c>
+    </row>
+    <row r="32" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A32" t="s">
+        <v>19</v>
+      </c>
+      <c r="B32" t="s">
+        <v>1</v>
+      </c>
+      <c r="C32" t="s">
+        <v>4</v>
+      </c>
+      <c r="D32" t="s">
+        <v>10</v>
+      </c>
+      <c r="E32">
+        <v>0.5647427406869383</v>
+      </c>
+      <c r="F32">
+        <v>3.302999999999999</v>
+      </c>
+    </row>
+    <row r="33" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A33" t="s">
+        <v>19</v>
+      </c>
+      <c r="B33" t="s">
+        <v>1</v>
+      </c>
+      <c r="C33" t="s">
+        <v>4</v>
+      </c>
+      <c r="D33" t="s">
+        <v>14</v>
+      </c>
+      <c r="E33">
+        <v>0.49612053014409702</v>
+      </c>
+      <c r="F33">
+        <v>0.60666666666666669</v>
+      </c>
+    </row>
+    <row r="34" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A34" t="s">
+        <v>19</v>
+      </c>
+      <c r="B34" t="s">
+        <v>1</v>
+      </c>
+      <c r="C34" t="s">
+        <v>4</v>
+      </c>
+      <c r="D34" t="s">
+        <v>11</v>
+      </c>
+      <c r="E34">
+        <v>0.2489691545231949</v>
+      </c>
+      <c r="F34">
+        <v>5.6573333333333338</v>
+      </c>
+    </row>
+    <row r="35" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A35" t="s">
+        <v>19</v>
+      </c>
+      <c r="B35" t="s">
+        <v>1</v>
+      </c>
+      <c r="C35" t="s">
+        <v>4</v>
+      </c>
+      <c r="D35" t="s">
+        <v>18</v>
+      </c>
+      <c r="E35">
+        <v>0.35858761757198471</v>
+      </c>
+      <c r="F35">
+        <v>6.069</v>
+      </c>
+    </row>
+    <row r="36" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A36" t="s">
+        <v>20</v>
+      </c>
+      <c r="B36" t="s">
+        <v>1</v>
+      </c>
+      <c r="C36" t="s">
+        <v>4</v>
+      </c>
+      <c r="D36" t="s">
+        <v>13</v>
+      </c>
+      <c r="E36">
+        <v>0.5162016812141843</v>
+      </c>
+      <c r="F36">
+        <v>3.333333333333334E-3</v>
+      </c>
+    </row>
+    <row r="37" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A37" t="s">
+        <v>20</v>
+      </c>
+      <c r="B37" t="s">
+        <v>1</v>
+      </c>
+      <c r="C37" t="s">
+        <v>4</v>
+      </c>
+      <c r="D37" t="s">
+        <v>8</v>
+      </c>
+      <c r="E37">
+        <v>0.32244339790646848</v>
+      </c>
+      <c r="F37">
+        <v>5.924666666666667</v>
+      </c>
+    </row>
+    <row r="38" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A38" t="s">
+        <v>20</v>
+      </c>
+      <c r="B38" t="s">
+        <v>1</v>
+      </c>
+      <c r="C38" t="s">
+        <v>4</v>
+      </c>
+      <c r="D38" t="s">
+        <v>14</v>
+      </c>
+      <c r="E38">
+        <v>0.50616010262466204</v>
+      </c>
+      <c r="F38">
+        <v>0.3036666666666667</v>
+      </c>
+    </row>
+    <row r="39" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A39" t="s">
+        <v>20</v>
+      </c>
+      <c r="B39" t="s">
+        <v>1</v>
+      </c>
+      <c r="C39" t="s">
+        <v>4</v>
+      </c>
+      <c r="D39" t="s">
+        <v>11</v>
+      </c>
+      <c r="E39">
+        <v>0.2489691545231949</v>
+      </c>
+      <c r="F39">
+        <v>5.698666666666667</v>
+      </c>
+    </row>
+    <row r="40" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A40" t="s">
+        <v>21</v>
+      </c>
+      <c r="B40" t="s">
+        <v>1</v>
+      </c>
+      <c r="C40" t="s">
+        <v>4</v>
+      </c>
+      <c r="D40" t="s">
+        <v>5</v>
+      </c>
+      <c r="E40">
+        <v>0.68822774783960483</v>
+      </c>
+      <c r="F40">
+        <v>1.197333333333334</v>
+      </c>
+    </row>
+    <row r="41" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A41" t="s">
+        <v>21</v>
+      </c>
+      <c r="B41" t="s">
+        <v>1</v>
+      </c>
+      <c r="C41" t="s">
+        <v>4</v>
+      </c>
+      <c r="D41" t="s">
+        <v>22</v>
+      </c>
+      <c r="E41">
+        <v>0.24203611680248119</v>
+      </c>
+      <c r="F41">
+        <v>16.498666666666669</v>
+      </c>
+    </row>
+    <row r="42" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A42" t="s">
+        <v>21</v>
+      </c>
+      <c r="B42" t="s">
+        <v>1</v>
+      </c>
+      <c r="C42" t="s">
+        <v>4</v>
+      </c>
+      <c r="D42" t="s">
+        <v>13</v>
+      </c>
+      <c r="E42">
+        <v>0.50616010262466204</v>
+      </c>
+      <c r="F42">
+        <v>3.333333333333334E-3</v>
+      </c>
+    </row>
+    <row r="43" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A43" t="s">
+        <v>21</v>
+      </c>
+      <c r="B43" t="s">
+        <v>1</v>
+      </c>
+      <c r="C43" t="s">
+        <v>4</v>
+      </c>
+      <c r="D43" t="s">
+        <v>9</v>
+      </c>
+      <c r="E43">
+        <v>0.26249786658527802</v>
+      </c>
+      <c r="F43">
+        <v>2.8220000000000001</v>
+      </c>
+    </row>
+    <row r="44" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A44" t="s">
+        <v>21</v>
+      </c>
+      <c r="B44" t="s">
+        <v>1</v>
+      </c>
+      <c r="C44" t="s">
+        <v>4</v>
+      </c>
+      <c r="D44" t="s">
+        <v>10</v>
+      </c>
+      <c r="E44">
+        <v>0.57478916853320072</v>
+      </c>
+      <c r="F44">
+        <v>3.302999999999999</v>
+      </c>
+    </row>
+    <row r="45" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A45" t="s">
+        <v>21</v>
+      </c>
+      <c r="B45" t="s">
+        <v>1</v>
+      </c>
+      <c r="C45" t="s">
+        <v>4</v>
+      </c>
+      <c r="D45" t="s">
+        <v>11</v>
+      </c>
+      <c r="E45">
+        <v>0.21435279777094249</v>
+      </c>
+      <c r="F45">
+        <v>5.6680000000000001</v>
+      </c>
+    </row>
+    <row r="46" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A46" t="s">
+        <v>21</v>
+      </c>
+      <c r="B46" t="s">
+        <v>1</v>
+      </c>
+      <c r="C46" t="s">
+        <v>4</v>
+      </c>
+      <c r="D46" t="s">
+        <v>18</v>
+      </c>
+      <c r="E46">
+        <v>0.2576232437112651</v>
+      </c>
+      <c r="F46">
+        <v>6.075333333333333</v>
+      </c>
+    </row>
+    <row r="47" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A47" t="s">
+        <v>23</v>
+      </c>
+      <c r="B47" t="s">
+        <v>1</v>
+      </c>
+      <c r="C47" t="s">
+        <v>4</v>
+      </c>
+      <c r="D47" t="s">
+        <v>5</v>
+      </c>
+      <c r="E47">
+        <v>0.68822774783960483</v>
+      </c>
+      <c r="F47">
+        <v>1.197333333333334</v>
+      </c>
+    </row>
+    <row r="48" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A48" t="s">
+        <v>23</v>
+      </c>
+      <c r="B48" t="s">
+        <v>1</v>
+      </c>
+      <c r="C48" t="s">
+        <v>4</v>
+      </c>
+      <c r="D48" t="s">
+        <v>22</v>
+      </c>
+      <c r="E48">
+        <v>0.20036410012536979</v>
+      </c>
+      <c r="F48">
+        <v>16.481999999999999</v>
+      </c>
+    </row>
+    <row r="49" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A49" t="s">
+        <v>23</v>
+      </c>
+      <c r="B49" t="s">
+        <v>1</v>
+      </c>
+      <c r="C49" t="s">
+        <v>4</v>
+      </c>
+      <c r="D49" t="s">
+        <v>13</v>
+      </c>
+      <c r="E49">
+        <v>0.50616010262466204</v>
+      </c>
+      <c r="F49">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="50" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A50" t="s">
+        <v>23</v>
+      </c>
+      <c r="B50" t="s">
+        <v>1</v>
+      </c>
+      <c r="C50" t="s">
+        <v>4</v>
+      </c>
+      <c r="D50" t="s">
+        <v>8</v>
+      </c>
+      <c r="E50">
+        <v>0.31242217690973462</v>
+      </c>
+      <c r="F50">
+        <v>5.921333333333334</v>
+      </c>
+    </row>
+    <row r="51" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A51" t="s">
+        <v>23</v>
+      </c>
+      <c r="B51" t="s">
+        <v>1</v>
+      </c>
+      <c r="C51" t="s">
+        <v>4</v>
+      </c>
+      <c r="D51" t="s">
+        <v>10</v>
+      </c>
+      <c r="E51">
+        <v>0.5647427406869383</v>
+      </c>
+      <c r="F51">
+        <v>3.2410000000000001</v>
+      </c>
+    </row>
+    <row r="52" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A52" t="s">
+        <v>23</v>
+      </c>
+      <c r="B52" t="s">
+        <v>1</v>
+      </c>
+      <c r="C52" t="s">
+        <v>4</v>
+      </c>
+      <c r="D52" t="s">
+        <v>14</v>
+      </c>
+      <c r="E52">
+        <v>0.49612053014409702</v>
+      </c>
+      <c r="F52">
+        <v>0.30033333333333329</v>
+      </c>
+    </row>
+    <row r="53" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A53" t="s">
+        <v>24</v>
+      </c>
+      <c r="B53" t="s">
+        <v>1</v>
+      </c>
+      <c r="C53" t="s">
+        <v>4</v>
+      </c>
+      <c r="D53" t="s">
+        <v>5</v>
+      </c>
+      <c r="E53">
+        <v>0.68822774783960483</v>
+      </c>
+      <c r="F53">
+        <v>1.186666666666667</v>
+      </c>
+    </row>
+    <row r="54" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A54" t="s">
+        <v>25</v>
+      </c>
+      <c r="B54" t="s">
+        <v>1</v>
+      </c>
+      <c r="C54" t="s">
+        <v>2</v>
+      </c>
+      <c r="D54" t="s">
+        <v>26</v>
+      </c>
+      <c r="E54">
+        <v>0.50405903538297991</v>
+      </c>
+      <c r="F54">
+        <v>6.8836666666666666</v>
+      </c>
+    </row>
+    <row r="55" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A55" t="s">
+        <v>25</v>
+      </c>
+      <c r="B55" t="s">
+        <v>1</v>
+      </c>
+      <c r="C55" t="s">
+        <v>4</v>
+      </c>
+      <c r="D55" t="s">
+        <v>5</v>
+      </c>
+      <c r="E55">
+        <v>0.74566541341167181</v>
+      </c>
+      <c r="F55">
+        <v>1.2746666666666671</v>
+      </c>
+    </row>
+    <row r="56" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A56" t="s">
+        <v>25</v>
+      </c>
+      <c r="B56" t="s">
+        <v>1</v>
+      </c>
+      <c r="C56" t="s">
+        <v>4</v>
+      </c>
+      <c r="D56" t="s">
+        <v>6</v>
+      </c>
+      <c r="E56">
+        <v>0.36000445253536378</v>
+      </c>
+      <c r="F56">
+        <v>1.867</v>
+      </c>
+    </row>
+    <row r="57" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A57" t="s">
+        <v>25</v>
+      </c>
+      <c r="B57" t="s">
+        <v>1</v>
+      </c>
+      <c r="C57" t="s">
+        <v>4</v>
+      </c>
+      <c r="D57" t="s">
+        <v>13</v>
+      </c>
+      <c r="E57">
+        <v>0.50616010262466204</v>
+      </c>
+      <c r="F57">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="58" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A58" t="s">
+        <v>25</v>
+      </c>
+      <c r="B58" t="s">
+        <v>1</v>
+      </c>
+      <c r="C58" t="s">
+        <v>4</v>
+      </c>
+      <c r="D58" t="s">
+        <v>7</v>
+      </c>
+      <c r="E58">
+        <v>1.127644366197174</v>
+      </c>
+      <c r="F58">
+        <v>5.6139999999999999</v>
+      </c>
+    </row>
+    <row r="59" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A59" t="s">
+        <v>25</v>
+      </c>
+      <c r="B59" t="s">
+        <v>1</v>
+      </c>
+      <c r="C59" t="s">
+        <v>4</v>
+      </c>
+      <c r="D59" t="s">
+        <v>8</v>
+      </c>
+      <c r="E59">
+        <v>0.31242217690973462</v>
+      </c>
+      <c r="F59">
+        <v>5.924666666666667</v>
+      </c>
+    </row>
+    <row r="60" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A60" t="s">
+        <v>25</v>
+      </c>
+      <c r="B60" t="s">
+        <v>1</v>
+      </c>
+      <c r="C60" t="s">
+        <v>4</v>
+      </c>
+      <c r="D60" t="s">
+        <v>9</v>
+      </c>
+      <c r="E60">
+        <v>0.25248263355490508</v>
+      </c>
+      <c r="F60">
+        <v>2.855666666666667</v>
+      </c>
+    </row>
+    <row r="61" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A61" t="s">
+        <v>25</v>
+      </c>
+      <c r="B61" t="s">
+        <v>1</v>
+      </c>
+      <c r="C61" t="s">
+        <v>4</v>
+      </c>
+      <c r="D61" t="s">
+        <v>10</v>
+      </c>
+      <c r="E61">
+        <v>0.5647427406869383</v>
+      </c>
+      <c r="F61">
+        <v>3.244333333333334</v>
+      </c>
+    </row>
+    <row r="62" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A62" t="s">
+        <v>25</v>
+      </c>
+      <c r="B62" t="s">
+        <v>1</v>
+      </c>
+      <c r="C62" t="s">
+        <v>4</v>
+      </c>
+      <c r="D62" t="s">
+        <v>14</v>
+      </c>
+      <c r="E62">
+        <v>0.49612053014409702</v>
+      </c>
+      <c r="F62">
+        <v>0.3036666666666667</v>
+      </c>
+    </row>
+    <row r="63" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A63" t="s">
+        <v>25</v>
+      </c>
+      <c r="B63" t="s">
+        <v>1</v>
+      </c>
+      <c r="C63" t="s">
+        <v>4</v>
+      </c>
+      <c r="D63" t="s">
+        <v>11</v>
+      </c>
+      <c r="E63">
+        <v>0.2489691545231949</v>
+      </c>
+      <c r="F63">
+        <v>5.7063333333333333</v>
+      </c>
+    </row>
+    <row r="64" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A64" t="s">
+        <v>25</v>
+      </c>
+      <c r="B64" t="s">
+        <v>1</v>
+      </c>
+      <c r="C64" t="s">
+        <v>4</v>
+      </c>
+      <c r="D64" t="s">
+        <v>15</v>
+      </c>
+      <c r="E64">
+        <v>0.24849861624258551</v>
+      </c>
+      <c r="F64">
+        <v>4.6396666666666668</v>
+      </c>
+    </row>
+    <row r="65" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A65" t="s">
+        <v>27</v>
+      </c>
+      <c r="B65" t="s">
+        <v>1</v>
+      </c>
+      <c r="C65" t="s">
+        <v>2</v>
+      </c>
+      <c r="D65" t="s">
+        <v>26</v>
+      </c>
+      <c r="E65">
+        <v>0.50405903538297991</v>
+      </c>
+      <c r="F65">
+        <v>6.8803333333333327</v>
+      </c>
+    </row>
+    <row r="66" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A66" t="s">
+        <v>27</v>
+      </c>
+      <c r="B66" t="s">
+        <v>1</v>
+      </c>
+      <c r="C66" t="s">
+        <v>4</v>
+      </c>
+      <c r="D66" t="s">
+        <v>5</v>
+      </c>
+      <c r="E66">
+        <v>0.71209471517327927</v>
+      </c>
+      <c r="F66">
+        <v>1.245333333333333</v>
+      </c>
+    </row>
+    <row r="67" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A67" t="s">
+        <v>27</v>
+      </c>
+      <c r="B67" t="s">
+        <v>1</v>
+      </c>
+      <c r="C67" t="s">
+        <v>4</v>
+      </c>
+      <c r="D67" t="s">
+        <v>8</v>
+      </c>
+      <c r="E67">
+        <v>0.31242217690973462</v>
+      </c>
+      <c r="F67">
+        <v>5.921333333333334</v>
+      </c>
+    </row>
+    <row r="68" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A68" t="s">
+        <v>27</v>
+      </c>
+      <c r="B68" t="s">
+        <v>1</v>
+      </c>
+      <c r="C68" t="s">
+        <v>4</v>
+      </c>
+      <c r="D68" t="s">
+        <v>9</v>
+      </c>
+      <c r="E68">
+        <v>0.25248263355490508</v>
+      </c>
+      <c r="F68">
+        <v>2.8523333333333341</v>
+      </c>
+    </row>
+    <row r="69" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A69" t="s">
+        <v>27</v>
+      </c>
+      <c r="B69" t="s">
+        <v>1</v>
+      </c>
+      <c r="C69" t="s">
+        <v>4</v>
+      </c>
+      <c r="D69" t="s">
+        <v>10</v>
+      </c>
+      <c r="E69">
+        <v>0.5647427406869383</v>
+      </c>
+      <c r="F69">
+        <v>3.2410000000000001</v>
+      </c>
+    </row>
+    <row r="70" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A70" t="s">
+        <v>27</v>
+      </c>
+      <c r="B70" t="s">
+        <v>1</v>
+      </c>
+      <c r="C70" t="s">
+        <v>4</v>
+      </c>
+      <c r="D70" t="s">
+        <v>14</v>
+      </c>
+      <c r="E70">
+        <v>0.49612053014409702</v>
+      </c>
+      <c r="F70">
+        <v>0.30033333333333329</v>
+      </c>
+    </row>
+    <row r="71" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A71" t="s">
+        <v>28</v>
+      </c>
+      <c r="B71" t="s">
+        <v>1</v>
+      </c>
+      <c r="C71" t="s">
+        <v>2</v>
+      </c>
+      <c r="D71" t="s">
+        <v>26</v>
+      </c>
+      <c r="E71">
+        <v>0.36447006450052299</v>
+      </c>
+      <c r="F71">
+        <v>6.9346666666666676</v>
+      </c>
+    </row>
+    <row r="72" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A72" t="s">
+        <v>28</v>
+      </c>
+      <c r="B72" t="s">
+        <v>1</v>
+      </c>
+      <c r="C72" t="s">
+        <v>2</v>
+      </c>
+      <c r="D72" t="s">
+        <v>17</v>
+      </c>
+      <c r="E72">
+        <v>0.25536969136213372</v>
+      </c>
+      <c r="F72">
+        <v>0.92166666666666652</v>
+      </c>
+    </row>
+    <row r="73" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A73" t="s">
+        <v>28</v>
+      </c>
+      <c r="B73" t="s">
+        <v>1</v>
+      </c>
+      <c r="C73" t="s">
+        <v>4</v>
+      </c>
+      <c r="D73" t="s">
+        <v>5</v>
+      </c>
+      <c r="E73">
+        <v>0.74566541341167181</v>
+      </c>
+      <c r="F73">
+        <v>1.245333333333333</v>
+      </c>
+    </row>
+    <row r="74" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A74" t="s">
+        <v>28</v>
+      </c>
+      <c r="B74" t="s">
+        <v>1</v>
+      </c>
+      <c r="C74" t="s">
+        <v>4</v>
+      </c>
+      <c r="D74" t="s">
+        <v>8</v>
+      </c>
+      <c r="E74">
+        <v>0.31242217690973462</v>
+      </c>
+      <c r="F74">
+        <v>5.924666666666667</v>
+      </c>
+    </row>
+    <row r="75" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A75" t="s">
+        <v>28</v>
+      </c>
+      <c r="B75" t="s">
+        <v>1</v>
+      </c>
+      <c r="C75" t="s">
+        <v>4</v>
+      </c>
+      <c r="D75" t="s">
+        <v>9</v>
+      </c>
+      <c r="E75">
+        <v>0.25248263355490508</v>
+      </c>
+      <c r="F75">
+        <v>2.855666666666667</v>
+      </c>
+    </row>
+    <row r="76" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A76" t="s">
+        <v>28</v>
+      </c>
+      <c r="B76" t="s">
+        <v>1</v>
+      </c>
+      <c r="C76" t="s">
+        <v>4</v>
+      </c>
+      <c r="D76" t="s">
+        <v>10</v>
+      </c>
+      <c r="E76">
+        <v>0.5647427406869383</v>
+      </c>
+      <c r="F76">
+        <v>3.244333333333334</v>
+      </c>
+    </row>
+    <row r="77" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A77" t="s">
+        <v>28</v>
+      </c>
+      <c r="B77" t="s">
+        <v>1</v>
+      </c>
+      <c r="C77" t="s">
+        <v>4</v>
+      </c>
+      <c r="D77" t="s">
+        <v>18</v>
+      </c>
+      <c r="E77">
+        <v>0.30810543064161777</v>
+      </c>
+      <c r="F77">
+        <v>6.1093333333333346</v>
+      </c>
+    </row>
+  </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
-  <dimension ref="A1"/>
+  <dimension ref="A1:D77"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="C2" sqref="C2"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
-  <sheetData/>
+  <cols>
+    <col min="1" max="1" width="25.6328125" customWidth="1"/>
+    <col min="3" max="3" width="14.453125" customWidth="1"/>
+    <col min="4" max="4" width="18.7265625" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A1" t="s">
+        <v>49</v>
+      </c>
+      <c r="B1" t="s">
+        <v>44</v>
+      </c>
+      <c r="C1" t="s">
+        <v>50</v>
+      </c>
+      <c r="D1" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="2" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A2" t="s">
+        <v>0</v>
+      </c>
+      <c r="B2" t="s">
+        <v>1</v>
+      </c>
+      <c r="C2">
+        <v>8</v>
+      </c>
+      <c r="D2">
+        <v>2.8149999999999999</v>
+      </c>
+    </row>
+    <row r="3" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A3" t="s">
+        <v>0</v>
+      </c>
+      <c r="B3" t="s">
+        <v>1</v>
+      </c>
+      <c r="C3">
+        <v>8</v>
+      </c>
+      <c r="D3">
+        <v>2.8149999999999999</v>
+      </c>
+    </row>
+    <row r="4" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A4" t="s">
+        <v>0</v>
+      </c>
+      <c r="B4" t="s">
+        <v>1</v>
+      </c>
+      <c r="C4">
+        <v>8</v>
+      </c>
+      <c r="D4">
+        <v>2.8149999999999999</v>
+      </c>
+    </row>
+    <row r="5" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A5" t="s">
+        <v>0</v>
+      </c>
+      <c r="B5" t="s">
+        <v>1</v>
+      </c>
+      <c r="C5">
+        <v>8</v>
+      </c>
+      <c r="D5">
+        <v>2.8149999999999999</v>
+      </c>
+    </row>
+    <row r="6" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A6" t="s">
+        <v>0</v>
+      </c>
+      <c r="B6" t="s">
+        <v>1</v>
+      </c>
+      <c r="C6">
+        <v>8</v>
+      </c>
+      <c r="D6">
+        <v>2.8149999999999999</v>
+      </c>
+    </row>
+    <row r="7" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A7" t="s">
+        <v>0</v>
+      </c>
+      <c r="B7" t="s">
+        <v>1</v>
+      </c>
+      <c r="C7">
+        <v>8</v>
+      </c>
+      <c r="D7">
+        <v>2.8149999999999999</v>
+      </c>
+    </row>
+    <row r="8" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A8" t="s">
+        <v>0</v>
+      </c>
+      <c r="B8" t="s">
+        <v>1</v>
+      </c>
+      <c r="C8">
+        <v>8</v>
+      </c>
+      <c r="D8">
+        <v>2.8149999999999999</v>
+      </c>
+    </row>
+    <row r="9" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A9" t="s">
+        <v>0</v>
+      </c>
+      <c r="B9" t="s">
+        <v>1</v>
+      </c>
+      <c r="C9">
+        <v>8</v>
+      </c>
+      <c r="D9">
+        <v>2.8149999999999999</v>
+      </c>
+    </row>
+    <row r="10" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A10" t="s">
+        <v>12</v>
+      </c>
+      <c r="B10" t="s">
+        <v>1</v>
+      </c>
+      <c r="C10">
+        <v>8</v>
+      </c>
+      <c r="D10">
+        <v>2.774</v>
+      </c>
+    </row>
+    <row r="11" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A11" t="s">
+        <v>12</v>
+      </c>
+      <c r="B11" t="s">
+        <v>1</v>
+      </c>
+      <c r="C11">
+        <v>8</v>
+      </c>
+      <c r="D11">
+        <v>2.774</v>
+      </c>
+    </row>
+    <row r="12" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A12" t="s">
+        <v>12</v>
+      </c>
+      <c r="B12" t="s">
+        <v>1</v>
+      </c>
+      <c r="C12">
+        <v>8</v>
+      </c>
+      <c r="D12">
+        <v>2.774</v>
+      </c>
+    </row>
+    <row r="13" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A13" t="s">
+        <v>12</v>
+      </c>
+      <c r="B13" t="s">
+        <v>1</v>
+      </c>
+      <c r="C13">
+        <v>8</v>
+      </c>
+      <c r="D13">
+        <v>2.774</v>
+      </c>
+    </row>
+    <row r="14" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A14" t="s">
+        <v>12</v>
+      </c>
+      <c r="B14" t="s">
+        <v>1</v>
+      </c>
+      <c r="C14">
+        <v>8</v>
+      </c>
+      <c r="D14">
+        <v>2.774</v>
+      </c>
+    </row>
+    <row r="15" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A15" t="s">
+        <v>12</v>
+      </c>
+      <c r="B15" t="s">
+        <v>1</v>
+      </c>
+      <c r="C15">
+        <v>8</v>
+      </c>
+      <c r="D15">
+        <v>2.774</v>
+      </c>
+    </row>
+    <row r="16" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A16" t="s">
+        <v>12</v>
+      </c>
+      <c r="B16" t="s">
+        <v>1</v>
+      </c>
+      <c r="C16">
+        <v>8</v>
+      </c>
+      <c r="D16">
+        <v>2.774</v>
+      </c>
+    </row>
+    <row r="17" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A17" t="s">
+        <v>12</v>
+      </c>
+      <c r="B17" t="s">
+        <v>1</v>
+      </c>
+      <c r="C17">
+        <v>8</v>
+      </c>
+      <c r="D17">
+        <v>2.774</v>
+      </c>
+    </row>
+    <row r="18" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A18" t="s">
+        <v>16</v>
+      </c>
+      <c r="B18" t="s">
+        <v>1</v>
+      </c>
+      <c r="C18">
+        <v>10</v>
+      </c>
+      <c r="D18">
+        <v>2.823</v>
+      </c>
+    </row>
+    <row r="19" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A19" t="s">
+        <v>16</v>
+      </c>
+      <c r="B19" t="s">
+        <v>1</v>
+      </c>
+      <c r="C19">
+        <v>10</v>
+      </c>
+      <c r="D19">
+        <v>2.823</v>
+      </c>
+    </row>
+    <row r="20" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A20" t="s">
+        <v>16</v>
+      </c>
+      <c r="B20" t="s">
+        <v>1</v>
+      </c>
+      <c r="C20">
+        <v>10</v>
+      </c>
+      <c r="D20">
+        <v>2.823</v>
+      </c>
+    </row>
+    <row r="21" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A21" t="s">
+        <v>16</v>
+      </c>
+      <c r="B21" t="s">
+        <v>1</v>
+      </c>
+      <c r="C21">
+        <v>10</v>
+      </c>
+      <c r="D21">
+        <v>2.823</v>
+      </c>
+    </row>
+    <row r="22" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A22" t="s">
+        <v>16</v>
+      </c>
+      <c r="B22" t="s">
+        <v>1</v>
+      </c>
+      <c r="C22">
+        <v>10</v>
+      </c>
+      <c r="D22">
+        <v>2.823</v>
+      </c>
+    </row>
+    <row r="23" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A23" t="s">
+        <v>16</v>
+      </c>
+      <c r="B23" t="s">
+        <v>1</v>
+      </c>
+      <c r="C23">
+        <v>10</v>
+      </c>
+      <c r="D23">
+        <v>2.823</v>
+      </c>
+    </row>
+    <row r="24" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A24" t="s">
+        <v>16</v>
+      </c>
+      <c r="B24" t="s">
+        <v>1</v>
+      </c>
+      <c r="C24">
+        <v>10</v>
+      </c>
+      <c r="D24">
+        <v>2.823</v>
+      </c>
+    </row>
+    <row r="25" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A25" t="s">
+        <v>16</v>
+      </c>
+      <c r="B25" t="s">
+        <v>1</v>
+      </c>
+      <c r="C25">
+        <v>10</v>
+      </c>
+      <c r="D25">
+        <v>2.823</v>
+      </c>
+    </row>
+    <row r="26" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A26" t="s">
+        <v>16</v>
+      </c>
+      <c r="B26" t="s">
+        <v>1</v>
+      </c>
+      <c r="C26">
+        <v>10</v>
+      </c>
+      <c r="D26">
+        <v>2.823</v>
+      </c>
+    </row>
+    <row r="27" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A27" t="s">
+        <v>16</v>
+      </c>
+      <c r="B27" t="s">
+        <v>1</v>
+      </c>
+      <c r="C27">
+        <v>10</v>
+      </c>
+      <c r="D27">
+        <v>2.823</v>
+      </c>
+    </row>
+    <row r="28" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A28" t="s">
+        <v>19</v>
+      </c>
+      <c r="B28" t="s">
+        <v>1</v>
+      </c>
+      <c r="C28">
+        <v>8</v>
+      </c>
+      <c r="D28">
+        <v>2.74</v>
+      </c>
+    </row>
+    <row r="29" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A29" t="s">
+        <v>19</v>
+      </c>
+      <c r="B29" t="s">
+        <v>1</v>
+      </c>
+      <c r="C29">
+        <v>8</v>
+      </c>
+      <c r="D29">
+        <v>2.74</v>
+      </c>
+    </row>
+    <row r="30" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A30" t="s">
+        <v>19</v>
+      </c>
+      <c r="B30" t="s">
+        <v>1</v>
+      </c>
+      <c r="C30">
+        <v>8</v>
+      </c>
+      <c r="D30">
+        <v>2.74</v>
+      </c>
+    </row>
+    <row r="31" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A31" t="s">
+        <v>19</v>
+      </c>
+      <c r="B31" t="s">
+        <v>1</v>
+      </c>
+      <c r="C31">
+        <v>8</v>
+      </c>
+      <c r="D31">
+        <v>2.74</v>
+      </c>
+    </row>
+    <row r="32" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A32" t="s">
+        <v>19</v>
+      </c>
+      <c r="B32" t="s">
+        <v>1</v>
+      </c>
+      <c r="C32">
+        <v>8</v>
+      </c>
+      <c r="D32">
+        <v>2.74</v>
+      </c>
+    </row>
+    <row r="33" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A33" t="s">
+        <v>19</v>
+      </c>
+      <c r="B33" t="s">
+        <v>1</v>
+      </c>
+      <c r="C33">
+        <v>8</v>
+      </c>
+      <c r="D33">
+        <v>2.74</v>
+      </c>
+    </row>
+    <row r="34" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A34" t="s">
+        <v>19</v>
+      </c>
+      <c r="B34" t="s">
+        <v>1</v>
+      </c>
+      <c r="C34">
+        <v>8</v>
+      </c>
+      <c r="D34">
+        <v>2.74</v>
+      </c>
+    </row>
+    <row r="35" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A35" t="s">
+        <v>19</v>
+      </c>
+      <c r="B35" t="s">
+        <v>1</v>
+      </c>
+      <c r="C35">
+        <v>8</v>
+      </c>
+      <c r="D35">
+        <v>2.74</v>
+      </c>
+    </row>
+    <row r="36" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A36" t="s">
+        <v>20</v>
+      </c>
+      <c r="B36" t="s">
+        <v>1</v>
+      </c>
+      <c r="C36">
+        <v>4</v>
+      </c>
+      <c r="D36">
+        <v>2.7429999999999999</v>
+      </c>
+    </row>
+    <row r="37" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A37" t="s">
+        <v>20</v>
+      </c>
+      <c r="B37" t="s">
+        <v>1</v>
+      </c>
+      <c r="C37">
+        <v>4</v>
+      </c>
+      <c r="D37">
+        <v>2.7429999999999999</v>
+      </c>
+    </row>
+    <row r="38" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A38" t="s">
+        <v>20</v>
+      </c>
+      <c r="B38" t="s">
+        <v>1</v>
+      </c>
+      <c r="C38">
+        <v>4</v>
+      </c>
+      <c r="D38">
+        <v>2.7429999999999999</v>
+      </c>
+    </row>
+    <row r="39" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A39" t="s">
+        <v>20</v>
+      </c>
+      <c r="B39" t="s">
+        <v>1</v>
+      </c>
+      <c r="C39">
+        <v>4</v>
+      </c>
+      <c r="D39">
+        <v>2.7429999999999999</v>
+      </c>
+    </row>
+    <row r="40" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A40" t="s">
+        <v>21</v>
+      </c>
+      <c r="B40" t="s">
+        <v>1</v>
+      </c>
+      <c r="C40">
+        <v>7</v>
+      </c>
+      <c r="D40">
+        <v>2.7709999999999999</v>
+      </c>
+    </row>
+    <row r="41" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A41" t="s">
+        <v>21</v>
+      </c>
+      <c r="B41" t="s">
+        <v>1</v>
+      </c>
+      <c r="C41">
+        <v>7</v>
+      </c>
+      <c r="D41">
+        <v>2.7709999999999999</v>
+      </c>
+    </row>
+    <row r="42" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A42" t="s">
+        <v>21</v>
+      </c>
+      <c r="B42" t="s">
+        <v>1</v>
+      </c>
+      <c r="C42">
+        <v>7</v>
+      </c>
+      <c r="D42">
+        <v>2.7709999999999999</v>
+      </c>
+    </row>
+    <row r="43" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A43" t="s">
+        <v>21</v>
+      </c>
+      <c r="B43" t="s">
+        <v>1</v>
+      </c>
+      <c r="C43">
+        <v>7</v>
+      </c>
+      <c r="D43">
+        <v>2.7709999999999999</v>
+      </c>
+    </row>
+    <row r="44" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A44" t="s">
+        <v>21</v>
+      </c>
+      <c r="B44" t="s">
+        <v>1</v>
+      </c>
+      <c r="C44">
+        <v>7</v>
+      </c>
+      <c r="D44">
+        <v>2.7709999999999999</v>
+      </c>
+    </row>
+    <row r="45" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A45" t="s">
+        <v>21</v>
+      </c>
+      <c r="B45" t="s">
+        <v>1</v>
+      </c>
+      <c r="C45">
+        <v>7</v>
+      </c>
+      <c r="D45">
+        <v>2.7709999999999999</v>
+      </c>
+    </row>
+    <row r="46" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A46" t="s">
+        <v>21</v>
+      </c>
+      <c r="B46" t="s">
+        <v>1</v>
+      </c>
+      <c r="C46">
+        <v>7</v>
+      </c>
+      <c r="D46">
+        <v>2.7709999999999999</v>
+      </c>
+    </row>
+    <row r="47" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A47" t="s">
+        <v>23</v>
+      </c>
+      <c r="B47" t="s">
+        <v>1</v>
+      </c>
+      <c r="C47">
+        <v>6</v>
+      </c>
+      <c r="D47">
+        <v>2.7440000000000002</v>
+      </c>
+    </row>
+    <row r="48" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A48" t="s">
+        <v>23</v>
+      </c>
+      <c r="B48" t="s">
+        <v>1</v>
+      </c>
+      <c r="C48">
+        <v>6</v>
+      </c>
+      <c r="D48">
+        <v>2.7440000000000002</v>
+      </c>
+    </row>
+    <row r="49" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A49" t="s">
+        <v>23</v>
+      </c>
+      <c r="B49" t="s">
+        <v>1</v>
+      </c>
+      <c r="C49">
+        <v>6</v>
+      </c>
+      <c r="D49">
+        <v>2.7440000000000002</v>
+      </c>
+    </row>
+    <row r="50" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A50" t="s">
+        <v>23</v>
+      </c>
+      <c r="B50" t="s">
+        <v>1</v>
+      </c>
+      <c r="C50">
+        <v>6</v>
+      </c>
+      <c r="D50">
+        <v>2.7440000000000002</v>
+      </c>
+    </row>
+    <row r="51" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A51" t="s">
+        <v>23</v>
+      </c>
+      <c r="B51" t="s">
+        <v>1</v>
+      </c>
+      <c r="C51">
+        <v>6</v>
+      </c>
+      <c r="D51">
+        <v>2.7440000000000002</v>
+      </c>
+    </row>
+    <row r="52" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A52" t="s">
+        <v>23</v>
+      </c>
+      <c r="B52" t="s">
+        <v>1</v>
+      </c>
+      <c r="C52">
+        <v>6</v>
+      </c>
+      <c r="D52">
+        <v>2.7440000000000002</v>
+      </c>
+    </row>
+    <row r="53" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A53" t="s">
+        <v>24</v>
+      </c>
+      <c r="B53" t="s">
+        <v>1</v>
+      </c>
+      <c r="C53">
+        <v>1</v>
+      </c>
+      <c r="D53">
+        <v>2.7509999999999999</v>
+      </c>
+    </row>
+    <row r="54" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A54" t="s">
+        <v>25</v>
+      </c>
+      <c r="B54" t="s">
+        <v>1</v>
+      </c>
+      <c r="C54">
+        <v>11</v>
+      </c>
+      <c r="D54">
+        <v>2.8540000000000001</v>
+      </c>
+    </row>
+    <row r="55" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A55" t="s">
+        <v>25</v>
+      </c>
+      <c r="B55" t="s">
+        <v>1</v>
+      </c>
+      <c r="C55">
+        <v>11</v>
+      </c>
+      <c r="D55">
+        <v>2.8540000000000001</v>
+      </c>
+    </row>
+    <row r="56" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A56" t="s">
+        <v>25</v>
+      </c>
+      <c r="B56" t="s">
+        <v>1</v>
+      </c>
+      <c r="C56">
+        <v>11</v>
+      </c>
+      <c r="D56">
+        <v>2.8540000000000001</v>
+      </c>
+    </row>
+    <row r="57" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A57" t="s">
+        <v>25</v>
+      </c>
+      <c r="B57" t="s">
+        <v>1</v>
+      </c>
+      <c r="C57">
+        <v>11</v>
+      </c>
+      <c r="D57">
+        <v>2.8540000000000001</v>
+      </c>
+    </row>
+    <row r="58" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A58" t="s">
+        <v>25</v>
+      </c>
+      <c r="B58" t="s">
+        <v>1</v>
+      </c>
+      <c r="C58">
+        <v>11</v>
+      </c>
+      <c r="D58">
+        <v>2.8540000000000001</v>
+      </c>
+    </row>
+    <row r="59" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A59" t="s">
+        <v>25</v>
+      </c>
+      <c r="B59" t="s">
+        <v>1</v>
+      </c>
+      <c r="C59">
+        <v>11</v>
+      </c>
+      <c r="D59">
+        <v>2.8540000000000001</v>
+      </c>
+    </row>
+    <row r="60" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A60" t="s">
+        <v>25</v>
+      </c>
+      <c r="B60" t="s">
+        <v>1</v>
+      </c>
+      <c r="C60">
+        <v>11</v>
+      </c>
+      <c r="D60">
+        <v>2.8540000000000001</v>
+      </c>
+    </row>
+    <row r="61" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A61" t="s">
+        <v>25</v>
+      </c>
+      <c r="B61" t="s">
+        <v>1</v>
+      </c>
+      <c r="C61">
+        <v>11</v>
+      </c>
+      <c r="D61">
+        <v>2.8540000000000001</v>
+      </c>
+    </row>
+    <row r="62" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A62" t="s">
+        <v>25</v>
+      </c>
+      <c r="B62" t="s">
+        <v>1</v>
+      </c>
+      <c r="C62">
+        <v>11</v>
+      </c>
+      <c r="D62">
+        <v>2.8540000000000001</v>
+      </c>
+    </row>
+    <row r="63" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A63" t="s">
+        <v>25</v>
+      </c>
+      <c r="B63" t="s">
+        <v>1</v>
+      </c>
+      <c r="C63">
+        <v>11</v>
+      </c>
+      <c r="D63">
+        <v>2.8540000000000001</v>
+      </c>
+    </row>
+    <row r="64" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A64" t="s">
+        <v>25</v>
+      </c>
+      <c r="B64" t="s">
+        <v>1</v>
+      </c>
+      <c r="C64">
+        <v>11</v>
+      </c>
+      <c r="D64">
+        <v>2.8540000000000001</v>
+      </c>
+    </row>
+    <row r="65" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A65" t="s">
+        <v>27</v>
+      </c>
+      <c r="B65" t="s">
+        <v>1</v>
+      </c>
+      <c r="C65">
+        <v>6</v>
+      </c>
+      <c r="D65">
+        <v>2.8479999999999999</v>
+      </c>
+    </row>
+    <row r="66" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A66" t="s">
+        <v>27</v>
+      </c>
+      <c r="B66" t="s">
+        <v>1</v>
+      </c>
+      <c r="C66">
+        <v>6</v>
+      </c>
+      <c r="D66">
+        <v>2.8479999999999999</v>
+      </c>
+    </row>
+    <row r="67" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A67" t="s">
+        <v>27</v>
+      </c>
+      <c r="B67" t="s">
+        <v>1</v>
+      </c>
+      <c r="C67">
+        <v>6</v>
+      </c>
+      <c r="D67">
+        <v>2.8479999999999999</v>
+      </c>
+    </row>
+    <row r="68" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A68" t="s">
+        <v>27</v>
+      </c>
+      <c r="B68" t="s">
+        <v>1</v>
+      </c>
+      <c r="C68">
+        <v>6</v>
+      </c>
+      <c r="D68">
+        <v>2.8479999999999999</v>
+      </c>
+    </row>
+    <row r="69" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A69" t="s">
+        <v>27</v>
+      </c>
+      <c r="B69" t="s">
+        <v>1</v>
+      </c>
+      <c r="C69">
+        <v>6</v>
+      </c>
+      <c r="D69">
+        <v>2.8479999999999999</v>
+      </c>
+    </row>
+    <row r="70" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A70" t="s">
+        <v>27</v>
+      </c>
+      <c r="B70" t="s">
+        <v>1</v>
+      </c>
+      <c r="C70">
+        <v>6</v>
+      </c>
+      <c r="D70">
+        <v>2.8479999999999999</v>
+      </c>
+    </row>
+    <row r="71" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A71" t="s">
+        <v>28</v>
+      </c>
+      <c r="B71" t="s">
+        <v>1</v>
+      </c>
+      <c r="C71">
+        <v>7</v>
+      </c>
+      <c r="D71">
+        <v>2.8929999999999998</v>
+      </c>
+    </row>
+    <row r="72" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A72" t="s">
+        <v>28</v>
+      </c>
+      <c r="B72" t="s">
+        <v>1</v>
+      </c>
+      <c r="C72">
+        <v>7</v>
+      </c>
+      <c r="D72">
+        <v>2.8929999999999998</v>
+      </c>
+    </row>
+    <row r="73" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A73" t="s">
+        <v>28</v>
+      </c>
+      <c r="B73" t="s">
+        <v>1</v>
+      </c>
+      <c r="C73">
+        <v>7</v>
+      </c>
+      <c r="D73">
+        <v>2.8929999999999998</v>
+      </c>
+    </row>
+    <row r="74" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A74" t="s">
+        <v>28</v>
+      </c>
+      <c r="B74" t="s">
+        <v>1</v>
+      </c>
+      <c r="C74">
+        <v>7</v>
+      </c>
+      <c r="D74">
+        <v>2.8929999999999998</v>
+      </c>
+    </row>
+    <row r="75" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A75" t="s">
+        <v>28</v>
+      </c>
+      <c r="B75" t="s">
+        <v>1</v>
+      </c>
+      <c r="C75">
+        <v>7</v>
+      </c>
+      <c r="D75">
+        <v>2.8929999999999998</v>
+      </c>
+    </row>
+    <row r="76" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A76" t="s">
+        <v>28</v>
+      </c>
+      <c r="B76" t="s">
+        <v>1</v>
+      </c>
+      <c r="C76">
+        <v>7</v>
+      </c>
+      <c r="D76">
+        <v>2.8929999999999998</v>
+      </c>
+    </row>
+    <row r="77" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A77" t="s">
+        <v>28</v>
+      </c>
+      <c r="B77" t="s">
+        <v>1</v>
+      </c>
+      <c r="C77">
+        <v>7</v>
+      </c>
+      <c r="D77">
+        <v>2.8929999999999998</v>
+      </c>
+    </row>
+  </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
-  <dimension ref="A1"/>
+  <dimension ref="A1:F16"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="C5" sqref="C5"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
+    <col min="1" max="1" width="39.1796875" customWidth="1"/>
+    <col min="2" max="2" width="16.36328125" customWidth="1"/>
     <col min="3" max="3" width="42.1796875" customWidth="1"/>
   </cols>
-  <sheetData/>
+  <sheetData>
+    <row r="1" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A1" t="s">
+        <v>46</v>
+      </c>
+      <c r="B1" t="s">
+        <v>45</v>
+      </c>
+      <c r="C1" t="s">
+        <v>52</v>
+      </c>
+      <c r="D1" t="s">
+        <v>54</v>
+      </c>
+      <c r="E1" t="s">
+        <v>55</v>
+      </c>
+      <c r="F1" t="s">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="2" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A2" t="s">
+        <v>5</v>
+      </c>
+      <c r="B2" t="s">
+        <v>4</v>
+      </c>
+      <c r="C2" t="s">
+        <v>29</v>
+      </c>
+      <c r="D2">
+        <v>4</v>
+      </c>
+      <c r="E2">
+        <v>1.6</v>
+      </c>
+      <c r="F2">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="3" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A3" t="s">
+        <v>6</v>
+      </c>
+      <c r="B3" t="s">
+        <v>4</v>
+      </c>
+      <c r="C3" t="s">
+        <v>30</v>
+      </c>
+      <c r="D3">
+        <v>4</v>
+      </c>
+      <c r="E3">
+        <v>2.2000000000000002</v>
+      </c>
+      <c r="F3">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="4" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A4" t="s">
+        <v>22</v>
+      </c>
+      <c r="B4" t="s">
+        <v>4</v>
+      </c>
+      <c r="C4" t="s">
+        <v>31</v>
+      </c>
+      <c r="D4">
+        <v>2</v>
+      </c>
+      <c r="E4">
+        <v>1.5</v>
+      </c>
+      <c r="F4">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="5" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A5" t="s">
+        <v>14</v>
+      </c>
+      <c r="B5" t="s">
+        <v>4</v>
+      </c>
+      <c r="C5" t="s">
+        <v>32</v>
+      </c>
+      <c r="D5">
+        <v>4</v>
+      </c>
+      <c r="E5">
+        <v>1.857142857142857</v>
+      </c>
+      <c r="F5">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="6" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A6" t="s">
+        <v>10</v>
+      </c>
+      <c r="B6" t="s">
+        <v>4</v>
+      </c>
+      <c r="C6" t="s">
+        <v>33</v>
+      </c>
+      <c r="D6">
+        <v>1</v>
+      </c>
+      <c r="E6">
+        <v>1</v>
+      </c>
+      <c r="F6">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="7" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A7" t="s">
+        <v>8</v>
+      </c>
+      <c r="B7" t="s">
+        <v>4</v>
+      </c>
+      <c r="C7" t="s">
+        <v>34</v>
+      </c>
+      <c r="D7">
+        <v>2</v>
+      </c>
+      <c r="E7">
+        <v>1.125</v>
+      </c>
+      <c r="F7">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="8" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A8" t="s">
+        <v>9</v>
+      </c>
+      <c r="B8" t="s">
+        <v>4</v>
+      </c>
+      <c r="C8" t="s">
+        <v>35</v>
+      </c>
+      <c r="D8">
+        <v>2</v>
+      </c>
+      <c r="E8">
+        <v>1.142857142857143</v>
+      </c>
+      <c r="F8">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="9" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A9" t="s">
+        <v>7</v>
+      </c>
+      <c r="B9" t="s">
+        <v>4</v>
+      </c>
+      <c r="C9" t="s">
+        <v>36</v>
+      </c>
+      <c r="D9">
+        <v>3</v>
+      </c>
+      <c r="E9">
+        <v>1.75</v>
+      </c>
+      <c r="F9">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="10" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A10" t="s">
+        <v>26</v>
+      </c>
+      <c r="B10" t="s">
+        <v>2</v>
+      </c>
+      <c r="C10" t="s">
+        <v>37</v>
+      </c>
+      <c r="D10">
+        <v>3</v>
+      </c>
+      <c r="E10">
+        <v>2</v>
+      </c>
+      <c r="F10">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="11" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A11" t="s">
+        <v>18</v>
+      </c>
+      <c r="B11" t="s">
+        <v>4</v>
+      </c>
+      <c r="C11" t="s">
+        <v>38</v>
+      </c>
+      <c r="D11">
+        <v>2</v>
+      </c>
+      <c r="E11">
+        <v>1.25</v>
+      </c>
+      <c r="F11">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="12" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A12" t="s">
+        <v>15</v>
+      </c>
+      <c r="B12" t="s">
+        <v>4</v>
+      </c>
+      <c r="C12" t="s">
+        <v>39</v>
+      </c>
+      <c r="D12">
+        <v>2</v>
+      </c>
+      <c r="E12">
+        <v>1.333333333333333</v>
+      </c>
+      <c r="F12">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="13" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A13" t="s">
+        <v>11</v>
+      </c>
+      <c r="B13" t="s">
+        <v>4</v>
+      </c>
+      <c r="C13" t="s">
+        <v>40</v>
+      </c>
+      <c r="D13">
+        <v>1</v>
+      </c>
+      <c r="E13">
+        <v>1</v>
+      </c>
+      <c r="F13">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="14" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A14" t="s">
+        <v>17</v>
+      </c>
+      <c r="B14" t="s">
+        <v>2</v>
+      </c>
+      <c r="C14" t="s">
+        <v>41</v>
+      </c>
+      <c r="D14">
+        <v>1</v>
+      </c>
+      <c r="E14">
+        <v>1</v>
+      </c>
+      <c r="F14">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="15" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A15" t="s">
+        <v>3</v>
+      </c>
+      <c r="B15" t="s">
+        <v>2</v>
+      </c>
+      <c r="C15" t="s">
+        <v>0</v>
+      </c>
+      <c r="D15">
+        <v>1</v>
+      </c>
+      <c r="E15">
+        <v>1</v>
+      </c>
+      <c r="F15">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="16" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A16" t="s">
+        <v>13</v>
+      </c>
+      <c r="B16" t="s">
+        <v>4</v>
+      </c>
+      <c r="C16" t="s">
+        <v>42</v>
+      </c>
+      <c r="D16">
+        <v>2</v>
+      </c>
+      <c r="E16">
+        <v>1.166666666666667</v>
+      </c>
+      <c r="F16">
+        <v>6</v>
+      </c>
+    </row>
+  </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
--- a/data/Triangular_Arbitrage_Binance.xlsx
+++ b/data/Triangular_Arbitrage_Binance.xlsx
@@ -1,35 +1,96 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <workbookPr/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="25225"/>
+  <workbookPr defaultThemeVersion="166925"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Ed\OneDrive - Imperial College London\Work\Fourth Year\Project\Research\crypto_arbitrage_bot\data\"/>
+    </mc:Choice>
+  </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BB50180D-0350-4E5E-82A7-924A48226E64}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" xWindow="-98" yWindow="-98" windowWidth="20715" windowHeight="13276" tabRatio="600" firstSheet="0" activeTab="2" autoFilterDateGrouping="1"/>
+    <workbookView xWindow="-110" yWindow="-110" windowWidth="38620" windowHeight="21220" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
-    <sheet name="Binance" sheetId="1" state="visible" r:id="rId1"/>
-    <sheet name="Binance Occ." sheetId="2" state="visible" r:id="rId2"/>
-    <sheet name="Binance Timing" sheetId="3" state="visible" r:id="rId3"/>
+    <sheet name="Binance" sheetId="1" r:id="rId1"/>
+    <sheet name="Binance Occ." sheetId="2" r:id="rId2"/>
+    <sheet name="Binance Timing" sheetId="3" r:id="rId3"/>
   </sheets>
-  <definedNames/>
-  <calcPr calcId="191029" fullCalcOnLoad="1"/>
+  <calcPr calcId="0"/>
 </workbook>
 </file>
 
+<file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="17" uniqueCount="17">
+  <si>
+    <t>date</t>
+  </si>
+  <si>
+    <t>route</t>
+  </si>
+  <si>
+    <t>direction</t>
+  </si>
+  <si>
+    <t>gain</t>
+  </si>
+  <si>
+    <t>volatility</t>
+  </si>
+  <si>
+    <t>vol1</t>
+  </si>
+  <si>
+    <t>vol2</t>
+  </si>
+  <si>
+    <t>vol3</t>
+  </si>
+  <si>
+    <t>Date</t>
+  </si>
+  <si>
+    <t>Exchange</t>
+  </si>
+  <si>
+    <t>Occruances</t>
+  </si>
+  <si>
+    <t>BTC Volatility</t>
+  </si>
+  <si>
+    <t>Route</t>
+  </si>
+  <si>
+    <t>Direction</t>
+  </si>
+  <si>
+    <t>Occ.</t>
+  </si>
+  <si>
+    <t>Average</t>
+  </si>
+  <si>
+    <t>Max</t>
+  </si>
+</sst>
+</file>
+
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <numFmts count="0"/>
-  <fonts count="1">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+  <fonts count="1" x14ac:knownFonts="1">
     <font>
+      <sz val="11"/>
+      <color theme="1"/>
       <name val="Calibri"/>
       <family val="2"/>
-      <color theme="1"/>
-      <sz val="11"/>
       <scheme val="minor"/>
     </font>
   </fonts>
   <fills count="2">
     <fill>
-      <patternFill/>
+      <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
@@ -48,80 +109,21 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
   <cellXfs count="1">
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
+  <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
-  <colors>
-    <indexedColors>
-      <rgbColor rgb="00000000"/>
-      <rgbColor rgb="00FFFFFF"/>
-      <rgbColor rgb="00FF0000"/>
-      <rgbColor rgb="0000FF00"/>
-      <rgbColor rgb="000000FF"/>
-      <rgbColor rgb="00FFFF00"/>
-      <rgbColor rgb="00FF00FF"/>
-      <rgbColor rgb="0000FFFF"/>
-      <rgbColor rgb="00000000"/>
-      <rgbColor rgb="00FFFFFF"/>
-      <rgbColor rgb="00FF0000"/>
-      <rgbColor rgb="0000FF00"/>
-      <rgbColor rgb="000000FF"/>
-      <rgbColor rgb="00FFFF00"/>
-      <rgbColor rgb="00FF00FF"/>
-      <rgbColor rgb="0000FFFF"/>
-      <rgbColor rgb="00800000"/>
-      <rgbColor rgb="00008000"/>
-      <rgbColor rgb="00000080"/>
-      <rgbColor rgb="00808000"/>
-      <rgbColor rgb="00800080"/>
-      <rgbColor rgb="00008080"/>
-      <rgbColor rgb="00C0C0C0"/>
-      <rgbColor rgb="00808080"/>
-      <rgbColor rgb="009999FF"/>
-      <rgbColor rgb="00993366"/>
-      <rgbColor rgb="00FFFFCC"/>
-      <rgbColor rgb="00CCFFFF"/>
-      <rgbColor rgb="00660066"/>
-      <rgbColor rgb="00FF8080"/>
-      <rgbColor rgb="000066CC"/>
-      <rgbColor rgb="00CCCCFF"/>
-      <rgbColor rgb="00000080"/>
-      <rgbColor rgb="00FF00FF"/>
-      <rgbColor rgb="00FFFF00"/>
-      <rgbColor rgb="0000FFFF"/>
-      <rgbColor rgb="00800080"/>
-      <rgbColor rgb="00800000"/>
-      <rgbColor rgb="00008080"/>
-      <rgbColor rgb="000000FF"/>
-      <rgbColor rgb="0000CCFF"/>
-      <rgbColor rgb="00CCFFFF"/>
-      <rgbColor rgb="00CCFFCC"/>
-      <rgbColor rgb="00FFFF99"/>
-      <rgbColor rgb="0099CCFF"/>
-      <rgbColor rgb="00FF99CC"/>
-      <rgbColor rgb="00CC99FF"/>
-      <rgbColor rgb="00FFCC99"/>
-      <rgbColor rgb="003366FF"/>
-      <rgbColor rgb="0033CCCC"/>
-      <rgbColor rgb="0099CC00"/>
-      <rgbColor rgb="00FFCC00"/>
-      <rgbColor rgb="00FF9900"/>
-      <rgbColor rgb="00FF6600"/>
-      <rgbColor rgb="00666699"/>
-      <rgbColor rgb="00969696"/>
-      <rgbColor rgb="00003366"/>
-      <rgbColor rgb="00339966"/>
-      <rgbColor rgb="00003300"/>
-      <rgbColor rgb="00333300"/>
-      <rgbColor rgb="00993300"/>
-      <rgbColor rgb="00993366"/>
-      <rgbColor rgb="00333399"/>
-      <rgbColor rgb="00333333"/>
-    </indexedColors>
-  </colors>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
+      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
+    </ext>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
+      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
+    </ext>
+  </extLst>
 </styleSheet>
 </file>
 
@@ -421,157 +423,39 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <sheetPr>
-    <outlinePr summaryBelow="1" summaryRight="1"/>
-    <pageSetUpPr/>
-  </sheetPr>
-  <dimension ref="A1:F5"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+  <dimension ref="A1:H1"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A1" sqref="A1"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection sqref="A1:XFD1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="8" defaultRowHeight="14.25"/>
+  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <sheetData>
-    <row r="1">
-      <c r="A1" t="inlineStr">
-        <is>
-          <t>2022-05-23 11:43:31</t>
-        </is>
-      </c>
-      <c r="B1" t="inlineStr">
-        <is>
-          <t>Binance</t>
-        </is>
-      </c>
-      <c r="C1" t="inlineStr">
-        <is>
-          <t>BUY -&gt; SELL -&gt; SELL</t>
-        </is>
-      </c>
-      <c r="D1" t="inlineStr">
-        <is>
-          <t>BTTCUSDT -&gt; BTTCBUSD -&gt; BUSDUSDT</t>
-        </is>
-      </c>
-      <c r="E1" t="n">
-        <v>0.6678262885947674</v>
-      </c>
-      <c r="F1" t="n">
-        <v>1.790333333333334</v>
-      </c>
-    </row>
-    <row r="2">
-      <c r="A2" t="inlineStr">
-        <is>
-          <t>2022-05-23 11:43:31</t>
-        </is>
-      </c>
-      <c r="B2" t="inlineStr">
-        <is>
-          <t>Binance</t>
-        </is>
-      </c>
-      <c r="C2" t="inlineStr">
-        <is>
-          <t>BUY -&gt; BUY -&gt; SELL</t>
-        </is>
-      </c>
-      <c r="D2" t="inlineStr">
-        <is>
-          <t>BUSDUSDT -&gt; DEGOBUSD -&gt; DEGOUSDT</t>
-        </is>
-      </c>
-      <c r="E2" t="n">
-        <v>1.033802786422243</v>
-      </c>
-      <c r="F2" t="n">
-        <v>2.223</v>
-      </c>
-    </row>
-    <row r="3">
-      <c r="A3" t="inlineStr">
-        <is>
-          <t>2022-05-23 11:43:32</t>
-        </is>
-      </c>
-      <c r="B3" t="inlineStr">
-        <is>
-          <t>Binance</t>
-        </is>
-      </c>
-      <c r="C3" t="inlineStr">
-        <is>
-          <t>BUY -&gt; SELL -&gt; SELL</t>
-        </is>
-      </c>
-      <c r="D3" t="inlineStr">
-        <is>
-          <t>BTTCUSDT -&gt; BTTCUSDC -&gt; USDCUSDT</t>
-        </is>
-      </c>
-      <c r="E3" t="n">
-        <v>0.6577695626918256</v>
-      </c>
-      <c r="F3" t="n">
-        <v>1.190666666666667</v>
-      </c>
-    </row>
-    <row r="4">
-      <c r="A4" t="inlineStr">
-        <is>
-          <t>2022-05-23 11:43:32</t>
-        </is>
-      </c>
-      <c r="B4" t="inlineStr">
-        <is>
-          <t>Binance</t>
-        </is>
-      </c>
-      <c r="C4" t="inlineStr">
-        <is>
-          <t>BUY -&gt; BUY -&gt; SELL</t>
-        </is>
-      </c>
-      <c r="D4" t="inlineStr">
-        <is>
-          <t>BUSDUSDT -&gt; DODOBUSD -&gt; DODOUSDT</t>
-        </is>
-      </c>
-      <c r="E4" t="n">
-        <v>0.2559669586992186</v>
-      </c>
-      <c r="F4" t="n">
-        <v>2.037</v>
-      </c>
-    </row>
-    <row r="5">
-      <c r="A5" t="inlineStr">
-        <is>
-          <t>2022-05-23 11:43:32</t>
-        </is>
-      </c>
-      <c r="B5" t="inlineStr">
-        <is>
-          <t>Binance</t>
-        </is>
-      </c>
-      <c r="C5" t="inlineStr">
-        <is>
-          <t>BUY -&gt; BUY -&gt; SELL</t>
-        </is>
-      </c>
-      <c r="D5" t="inlineStr">
-        <is>
-          <t>BUSDUSDT -&gt; MOVRBUSD -&gt; MOVRUSDT</t>
-        </is>
-      </c>
-      <c r="E5" t="n">
-        <v>0.3818811553152983</v>
-      </c>
-      <c r="F5" t="n">
-        <v>2.579333333333333</v>
+    <row r="1" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="A1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" t="s">
+        <v>2</v>
+      </c>
+      <c r="D1" t="s">
+        <v>3</v>
+      </c>
+      <c r="E1" t="s">
+        <v>4</v>
+      </c>
+      <c r="F1" t="s">
+        <v>5</v>
+      </c>
+      <c r="G1" t="s">
+        <v>6</v>
+      </c>
+      <c r="H1" t="s">
+        <v>7</v>
       </c>
     </row>
   </sheetData>
@@ -580,107 +464,32 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <sheetPr>
-    <outlinePr summaryBelow="1" summaryRight="1"/>
-    <pageSetUpPr/>
-  </sheetPr>
-  <dimension ref="A1:D5"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
+  <dimension ref="A1:D1"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="A1" sqref="A1"/>
+      <selection sqref="A1:XFD1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="8" defaultRowHeight="14.25"/>
+  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <cols>
+    <col min="2" max="2" width="10" customWidth="1"/>
+    <col min="3" max="3" width="10.36328125" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="17.90625" customWidth="1"/>
+  </cols>
   <sheetData>
-    <row r="1">
-      <c r="A1" t="inlineStr">
-        <is>
-          <t>2022-05-23 11:43:31</t>
-        </is>
-      </c>
-      <c r="B1" t="inlineStr">
-        <is>
-          <t>Binance</t>
-        </is>
-      </c>
-      <c r="C1" t="n">
-        <v>2</v>
-      </c>
-      <c r="D1" t="n">
-        <v>0.757</v>
-      </c>
-    </row>
-    <row r="2">
-      <c r="A2" t="inlineStr">
-        <is>
-          <t>2022-05-23 11:43:31</t>
-        </is>
-      </c>
-      <c r="B2" t="inlineStr">
-        <is>
-          <t>Binance</t>
-        </is>
-      </c>
-      <c r="C2" t="n">
-        <v>2</v>
-      </c>
-      <c r="D2" t="n">
-        <v>0.757</v>
-      </c>
-    </row>
-    <row r="3">
-      <c r="A3" t="inlineStr">
-        <is>
-          <t>2022-05-23 11:43:32</t>
-        </is>
-      </c>
-      <c r="B3" t="inlineStr">
-        <is>
-          <t>Binance</t>
-        </is>
-      </c>
-      <c r="C3" t="n">
-        <v>3</v>
-      </c>
-      <c r="D3" t="n">
-        <v>0.768</v>
-      </c>
-    </row>
-    <row r="4">
-      <c r="A4" t="inlineStr">
-        <is>
-          <t>2022-05-23 11:43:32</t>
-        </is>
-      </c>
-      <c r="B4" t="inlineStr">
-        <is>
-          <t>Binance</t>
-        </is>
-      </c>
-      <c r="C4" t="n">
-        <v>3</v>
-      </c>
-      <c r="D4" t="n">
-        <v>0.768</v>
-      </c>
-    </row>
-    <row r="5">
-      <c r="A5" t="inlineStr">
-        <is>
-          <t>2022-05-23 11:43:32</t>
-        </is>
-      </c>
-      <c r="B5" t="inlineStr">
-        <is>
-          <t>Binance</t>
-        </is>
-      </c>
-      <c r="C5" t="n">
-        <v>3</v>
-      </c>
-      <c r="D5" t="n">
-        <v>0.768</v>
+    <row r="1" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A1" t="s">
+        <v>8</v>
+      </c>
+      <c r="B1" t="s">
+        <v>9</v>
+      </c>
+      <c r="C1" t="s">
+        <v>10</v>
+      </c>
+      <c r="D1" t="s">
+        <v>11</v>
       </c>
     </row>
   </sheetData>
@@ -689,19 +498,33 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <sheetPr>
-    <outlinePr summaryBelow="1" summaryRight="1"/>
-    <pageSetUpPr/>
-  </sheetPr>
-  <dimension ref="A1:A1"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
+  <dimension ref="A1:E1"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A1" sqref="A1"/>
+    <sheetView workbookViewId="0">
+      <selection sqref="A1:XFD1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="8" defaultRowHeight="14.25"/>
-  <sheetData/>
+  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetData>
+    <row r="1" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A1" t="s">
+        <v>12</v>
+      </c>
+      <c r="B1" t="s">
+        <v>13</v>
+      </c>
+      <c r="C1" t="s">
+        <v>14</v>
+      </c>
+      <c r="D1" t="s">
+        <v>15</v>
+      </c>
+      <c r="E1" t="s">
+        <v>16</v>
+      </c>
+    </row>
+  </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>